--- a/Profiles _ BFJ.xlsx
+++ b/Profiles _ BFJ.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1145">
   <si>
     <t>Setup?</t>
   </si>
@@ -1885,7 +1885,7 @@
     <t>Martial Artist | Practicing discipline and balance through karate.</t>
   </si>
   <si>
-    <t>abigailyoung@gmail.com</t>
+    <t>abigailyoung309@gmail.com</t>
   </si>
   <si>
     <t>o@Zx!GcgPth7</t>
@@ -1894,6 +1894,9 @@
     <t>@AbigailKarate</t>
   </si>
   <si>
+    <t>@AbigailY6943</t>
+  </si>
+  <si>
     <t>William</t>
   </si>
   <si>
@@ -1903,7 +1906,7 @@
     <t>Fantasy Fan | Lover of dragons, elves, and epic tales.</t>
   </si>
   <si>
-    <t>williamhernandez@gmail.com</t>
+    <t>williamhernandez9465@gmail.com</t>
   </si>
   <si>
     <t>pQfqvZgothvG</t>
@@ -1912,13 +1915,16 @@
     <t>@WillFantasy</t>
   </si>
   <si>
+    <t>@WillFantasys</t>
+  </si>
+  <si>
     <t>King</t>
   </si>
   <si>
     <t>Astronomy Geek | Stargazing and dreaming of galaxies far, far away.</t>
   </si>
   <si>
-    <t>chloeking@gmail.com</t>
+    <t>chloeking2738@gmail.com</t>
   </si>
   <si>
     <t>3mHRo8!Fwsmr</t>
@@ -1927,6 +1933,9 @@
     <t>@ChloeStars</t>
   </si>
   <si>
+    <t>@ChloeWithStars</t>
+  </si>
+  <si>
     <t>Owen</t>
   </si>
   <si>
@@ -1936,7 +1945,7 @@
     <t>Puzzle Solver | Tackling challenges, one piece at a time.</t>
   </si>
   <si>
-    <t>owenwright@gmail.com</t>
+    <t>owenwright9899@gmail.com</t>
   </si>
   <si>
     <t>3m@AF$EdmvgT</t>
@@ -1948,7 +1957,7 @@
     <t>Skateboarder | Rolling through life with a board and big dreams.</t>
   </si>
   <si>
-    <t>emilylopez@gmail.com</t>
+    <t>emilylopez4767@gmail.com</t>
   </si>
   <si>
     <t>hG9uBfMgRcXB</t>
@@ -1957,13 +1966,16 @@
     <t>@EmilySkates</t>
   </si>
   <si>
+    <t>@EmilySkater</t>
+  </si>
+  <si>
     <t>Hill</t>
   </si>
   <si>
     <t>Poetry Lover | Writing verses inspired by everyday moments.</t>
   </si>
   <si>
-    <t>danielhill@gmail.com</t>
+    <t>danielhill2468@gmail.com</t>
   </si>
   <si>
     <t>5puukVggzRCK</t>
@@ -1972,13 +1984,16 @@
     <t>@DanielPoetry</t>
   </si>
   <si>
+    <t>@DanielPoetrys</t>
+  </si>
+  <si>
     <t>Scott</t>
   </si>
   <si>
     <t>Animal Advocate | Passionate about wildlife rescue and conservation.</t>
   </si>
   <si>
-    <t>hannahscott@gmail.com</t>
+    <t>hannahscott7565@gmail.com</t>
   </si>
   <si>
     <t>vn6nuprxB6cq</t>
@@ -1999,7 +2014,7 @@
     <t>Salsa Dancer | Moving to the rhythm of life, one step at a time.</t>
   </si>
   <si>
-    <t>jacobgreen@gmail.com</t>
+    <t>jacobgreen4343@gmail.com</t>
   </si>
   <si>
     <t>GvnBVpka4zms</t>
@@ -2008,6 +2023,9 @@
     <t>@JacobSalsa</t>
   </si>
   <si>
+    <t>@JacobSalsa5</t>
+  </si>
+  <si>
     <t>Zoe</t>
   </si>
   <si>
@@ -2017,7 +2035,7 @@
     <t>Kayaking Enthusiast | Paddling through adventures on tranquil waters.</t>
   </si>
   <si>
-    <t>zoeadams@gmail.com</t>
+    <t>zoeadams6723@gmail.com</t>
   </si>
   <si>
     <t>nMPThsukZkdn</t>
@@ -2032,7 +2050,7 @@
     <t>DIY Mechanic | Fixing cars and learning along the way.</t>
   </si>
   <si>
-    <t>michaelbaker@gmail.com</t>
+    <t>michaelbaker5768@gmail.com</t>
   </si>
   <si>
     <t>qXdkg$BtiF@M</t>
@@ -2050,7 +2068,7 @@
     <t>Volleyball Fan | Spiking on the court and cheering for the team.</t>
   </si>
   <si>
-    <t>scarlettgonzalez@gmail.com</t>
+    <t>scarlettgonzalez502@gmail.com</t>
   </si>
   <si>
     <t>NcvFnzNLfW3!</t>
@@ -2068,7 +2086,7 @@
     <t>Board Game Lover | Settling Catan and building empires with friends.</t>
   </si>
   <si>
-    <t>calebnelson@gmail.com</t>
+    <t>calebnelson226@gmail.com</t>
   </si>
   <si>
     <t>$moeXKM$bCn4</t>
@@ -2086,7 +2104,7 @@
     <t>Stand-Up Comedy Enthusiast | Sharing laughs and chasing punchlines.</t>
   </si>
   <si>
-    <t>lucycarter@gmail.com</t>
+    <t>lucycarter765@gmail.com</t>
   </si>
   <si>
     <t>BjS7j6bcnh6h</t>
@@ -2104,7 +2122,7 @@
     <t>Urban Explorer | Discovering hidden gems in the heart of the city.</t>
   </si>
   <si>
-    <t>loganmitchell@gmail.com</t>
+    <t>loganmitchell445@gmail.com</t>
   </si>
   <si>
     <t>!$ZxgjnkPfQN</t>
@@ -2113,6 +2131,9 @@
     <t>@LoganUrban</t>
   </si>
   <si>
+    <t>@LoganUrban33</t>
+  </si>
+  <si>
     <t>Aria</t>
   </si>
   <si>
@@ -2122,7 +2143,7 @@
     <t>Home Baker | Creating sweet memories, one cupcake at a time.</t>
   </si>
   <si>
-    <t>ariaperez@gmail.com</t>
+    <t>ariaperez584@gmail.com</t>
   </si>
   <si>
     <t>dnBpERNB7j9e</t>
@@ -2131,6 +2152,9 @@
     <t>@AriaBakes</t>
   </si>
   <si>
+    <t>@AriaTheBaker</t>
+  </si>
+  <si>
     <t>Levi</t>
   </si>
   <si>
@@ -2140,7 +2164,7 @@
     <t>Birdwatcher | Finding serenity in the flutter of wings and chirps of nature.</t>
   </si>
   <si>
-    <t>leviroberts@gmail.com</t>
+    <t>leviroberts745@gmail.com</t>
   </si>
   <si>
     <t>X3dWLkQYTUk3</t>
@@ -2155,7 +2179,7 @@
     <t>Aspiring Photographer | Capturing life’s moments through my lens.</t>
   </si>
   <si>
-    <t>victoriaturner@gmail.com</t>
+    <t>victoriaturner366@gmail.com</t>
   </si>
   <si>
     <t>Qa@sZ59jTMif</t>
@@ -2164,6 +2188,9 @@
     <t>@VictoriaPhotos</t>
   </si>
   <si>
+    <t>@VictoriaPhotos9</t>
+  </si>
+  <si>
     <t>Ryan</t>
   </si>
   <si>
@@ -2173,7 +2200,7 @@
     <t>Guitar Player | Strumming strings and chasing melodies.</t>
   </si>
   <si>
-    <t>ryanphillips@gmail.com</t>
+    <t>ryanphillips7868@gmail.com</t>
   </si>
   <si>
     <t>D7ziGWtUXmXY</t>
@@ -2182,6 +2209,9 @@
     <t>@RyanPlays</t>
   </si>
   <si>
+    <t>@RyanPlays66</t>
+  </si>
+  <si>
     <t>Nora</t>
   </si>
   <si>
@@ -2191,7 +2221,7 @@
     <t>Soccer Enthusiast | Living for the thrill of the game.</t>
   </si>
   <si>
-    <t>noracampbell@gmail.com</t>
+    <t>noracampbell626@gmail.com</t>
   </si>
   <si>
     <t>D!PbVCP$RfgV</t>
@@ -2200,6 +2230,9 @@
     <t>@NoraSoccer</t>
   </si>
   <si>
+    <t>@NoraSoccerr</t>
+  </si>
+  <si>
     <t>Matthew</t>
   </si>
   <si>
@@ -2209,7 +2242,7 @@
     <t>Minimalist | Finding joy in simplicity and intentional living.</t>
   </si>
   <si>
-    <t>matthewparker@gmail.com</t>
+    <t>matthewparker2425@gmail.com</t>
   </si>
   <si>
     <t>drNbo6SXpw@x</t>
@@ -2218,6 +2251,9 @@
     <t>@MattSimple</t>
   </si>
   <si>
+    <t>@MattSimple42</t>
+  </si>
+  <si>
     <t>Potter | Shaping clay and creating handmade treasures.</t>
   </si>
   <si>
@@ -2404,7 +2440,7 @@
     <t>CrossFit Athlete | Pushing limits and chasing personal bests.</t>
   </si>
   <si>
-    <t>lillianbell@gmail.com</t>
+    <t>lillianbell682@gmail.com</t>
   </si>
   <si>
     <t>@LillianLifts</t>
@@ -2419,7 +2455,7 @@
     <t>Chess Enthusiast | Strategizing moves and thinking ahead.</t>
   </si>
   <si>
-    <t>cartermurphy@gmail.com</t>
+    <t>cartermurphy625@gmail.com</t>
   </si>
   <si>
     <t>@CarterChess</t>
@@ -2437,7 +2473,7 @@
     <t>Language Learner | Exploring the world one word at a time.</t>
   </si>
   <si>
-    <t>stellabailey@gmail.com</t>
+    <t>stellabailey92@gmail.com</t>
   </si>
   <si>
     <t>@StellaLearns</t>
@@ -2455,7 +2491,7 @@
     <t>Tea Connoisseur | Brewing and tasting teas from around the globe.</t>
   </si>
   <si>
-    <t>ezrarivera@gmail.com</t>
+    <t>ezrarivera09@gmail.com</t>
   </si>
   <si>
     <t>@EzraTea</t>
@@ -2473,7 +2509,7 @@
     <t>Beachcomber | Collecting treasures along the shore.</t>
   </si>
   <si>
-    <t>savannahcooper@gmail.com</t>
+    <t>savannahcooper305@gmail.com</t>
   </si>
   <si>
     <t>@SavBeach</t>
@@ -2491,7 +2527,7 @@
     <t>Amateur Chef | Experimenting in the kitchen and creating new dishes.</t>
   </si>
   <si>
-    <t>joshuarichardson@gmail.com</t>
+    <t>joshuarichardson454@gmail.com</t>
   </si>
   <si>
     <t>@JoshCooks</t>
@@ -2506,7 +2542,7 @@
     <t>Nature Enthusiast | Exploring forests and mountain trails.</t>
   </si>
   <si>
-    <t>nataliecox@gmail.com</t>
+    <t>nataliecox158@gmail.com</t>
   </si>
   <si>
     <t>@NatNature</t>
@@ -2524,7 +2560,7 @@
     <t>Origami Artist | Folding paper into intricate designs.</t>
   </si>
   <si>
-    <t>graysonhoward@gmail.com</t>
+    <t>graysonhoward904@gmail.com</t>
   </si>
   <si>
     <t>@GrayOrigami</t>
@@ -2542,7 +2578,7 @@
     <t>Podcast Creator | Sharing stories and ideas with the world.</t>
   </si>
   <si>
-    <t>audreyward@gmail.com</t>
+    <t>audreyward523@gmail.com</t>
   </si>
   <si>
     <t>@AudreyPods</t>
@@ -2560,7 +2596,7 @@
     <t>Tennis Player | Serving up fun on and off the court.</t>
   </si>
   <si>
-    <t>christophertorres@gmail.com</t>
+    <t>christophertorres9334@gmail.com</t>
   </si>
   <si>
     <t>@ChrisServes</t>
@@ -2575,7 +2611,7 @@
     <t>Beer Brewer | Crafting small batches with big flavor.</t>
   </si>
   <si>
-    <t>violetpeterson@gmail.com</t>
+    <t>violetpeterson56@gmail.com</t>
   </si>
   <si>
     <t>@VioletBrews</t>
@@ -2593,7 +2629,7 @@
     <t>Graphic Designer | Turning ideas into eye-catching visuals.</t>
   </si>
   <si>
-    <t>andrewgray@gmail.com</t>
+    <t>andrewgray4656@gmail.com</t>
   </si>
   <si>
     <t>@AndyDesigns</t>
@@ -2611,7 +2647,7 @@
     <t>Fitness Coach | Helping others achieve their health goals.</t>
   </si>
   <si>
-    <t>hazelramirez@gmail.com</t>
+    <t>hazelramirez455@gmail.com</t>
   </si>
   <si>
     <t>@HazelCoach</t>
@@ -2623,7 +2659,7 @@
     <t>Public Speaker | Inspiring audiences with stories and insights.</t>
   </si>
   <si>
-    <t>thomasjames@gmail.com</t>
+    <t>thomasjames4282@gmail.com</t>
   </si>
   <si>
     <t>@TomSpeaks</t>
@@ -2641,7 +2677,7 @@
     <t>Amateur Filmmaker | Telling stories through the lens.</t>
   </si>
   <si>
-    <t>elliewatson@gmail.com</t>
+    <t>elliewatson203@gmail.com</t>
   </si>
   <si>
     <t>@EllieFilms</t>
@@ -3462,7 +3498,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3535,6 +3571,12 @@
         <bgColor rgb="FFA64D79"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -3542,7 +3584,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3651,6 +3693,18 @@
     </xf>
     <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -8088,7 +8142,9 @@
     </row>
     <row r="92">
       <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
+      <c r="B92" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C92" s="8">
         <v>91.0</v>
       </c>
@@ -8116,7 +8172,9 @@
       <c r="K92" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="L92" s="9"/>
+      <c r="L92" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M92" s="6" t="s">
         <v>620</v>
       </c>
@@ -8124,21 +8182,23 @@
         <v>621</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Q92" s="9"/>
     </row>
     <row r="93">
       <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
+      <c r="B93" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C93" s="8">
         <v>92.0</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>481</v>
@@ -8147,7 +8207,7 @@
         <v>486</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I93" s="6">
         <v>20.0</v>
@@ -8156,23 +8216,27 @@
         <v>38112.0</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="L93" s="9"/>
+        <v>626</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M93" s="6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="Q93" s="9"/>
     </row>
     <row r="94">
       <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
+      <c r="B94" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C94" s="8">
         <v>93.0</v>
       </c>
@@ -8180,7 +8244,7 @@
         <v>173</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>19</v>
@@ -8189,7 +8253,7 @@
         <v>348</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="I94" s="6">
         <v>24.0</v>
@@ -8198,31 +8262,35 @@
         <v>36809.0</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="L94" s="9"/>
+        <v>632</v>
+      </c>
+      <c r="L94" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M94" s="6" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="Q94" s="9"/>
     </row>
     <row r="95">
       <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
+      <c r="B95" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C95" s="8">
         <v>94.0</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>481</v>
@@ -8231,7 +8299,7 @@
         <v>513</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="I95" s="6">
         <v>37.0</v>
@@ -8240,23 +8308,27 @@
         <v>31819.0</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="L95" s="9"/>
+        <v>639</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M95" s="6" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="Q95" s="9"/>
     </row>
     <row r="96">
       <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
+      <c r="B96" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C96" s="8">
         <v>95.0</v>
       </c>
@@ -8273,7 +8345,7 @@
         <v>287</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="I96" s="6">
         <v>38.0</v>
@@ -8282,23 +8354,27 @@
         <v>31637.0</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="L96" s="9"/>
+        <v>643</v>
+      </c>
+      <c r="L96" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M96" s="6" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="Q96" s="9"/>
     </row>
     <row r="97">
       <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
+      <c r="B97" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C97" s="8">
         <v>96.0</v>
       </c>
@@ -8306,7 +8382,7 @@
         <v>151</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>481</v>
@@ -8315,7 +8391,7 @@
         <v>46</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="I97" s="6">
         <v>38.0</v>
@@ -8324,23 +8400,27 @@
         <v>31593.0</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="L97" s="9"/>
+        <v>649</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M97" s="6" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="Q97" s="9"/>
     </row>
     <row r="98">
       <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
+      <c r="B98" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C98" s="8">
         <v>97.0</v>
       </c>
@@ -8348,7 +8428,7 @@
         <v>199</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>19</v>
@@ -8357,7 +8437,7 @@
         <v>122</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="I98" s="6">
         <v>28.0</v>
@@ -8366,40 +8446,44 @@
         <v>35214.0</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="L98" s="9"/>
+        <v>655</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M98" s="6" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="Q98" s="9"/>
     </row>
     <row r="99">
       <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
+      <c r="B99" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C99" s="8">
         <v>98.0</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="I99" s="6">
         <v>40.0</v>
@@ -8408,31 +8492,35 @@
         <v>30804.0</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="L99" s="9"/>
+        <v>662</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M99" s="6" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="P99" s="6" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="Q99" s="9"/>
     </row>
     <row r="100">
       <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
+      <c r="B100" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C100" s="8">
         <v>99.0</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>19</v>
@@ -8441,7 +8529,7 @@
         <v>486</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="I100" s="6">
         <v>20.0</v>
@@ -8450,28 +8538,32 @@
         <v>38142.0</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="L100" s="9"/>
+        <v>669</v>
+      </c>
+      <c r="L100" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M100" s="6" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="P100" s="6" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="Q100" s="9"/>
     </row>
     <row r="101">
       <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
+      <c r="B101" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C101" s="8">
         <v>100.0</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>251</v>
@@ -8483,7 +8575,7 @@
         <v>99</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="I101" s="6">
         <v>24.0</v>
@@ -8492,31 +8584,35 @@
         <v>36737.0</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="L101" s="9"/>
+        <v>674</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M101" s="6" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="P101" s="6" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="Q101" s="9"/>
     </row>
     <row r="102">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="38" t="s">
+        <v>220</v>
+      </c>
       <c r="C102" s="8">
         <v>101.0</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>19</v>
@@ -8525,7 +8621,7 @@
         <v>532</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="I102" s="6">
         <v>34.0</v>
@@ -8534,31 +8630,35 @@
         <v>32902.0</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="L102" s="9"/>
+        <v>680</v>
+      </c>
+      <c r="L102" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M102" s="6" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="P102" s="6" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="Q102" s="9"/>
     </row>
     <row r="103">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="38" t="s">
+        <v>220</v>
+      </c>
       <c r="C103" s="8">
         <v>102.0</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>481</v>
@@ -8567,7 +8667,7 @@
         <v>348</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="I103" s="6">
         <v>28.0</v>
@@ -8576,31 +8676,35 @@
         <v>35229.0</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="L103" s="9"/>
+        <v>686</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M103" s="6" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="N103" s="6" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="P103" s="6" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="Q103" s="9"/>
     </row>
     <row r="104">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="38" t="s">
+        <v>220</v>
+      </c>
       <c r="C104" s="8">
         <v>103.0</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>19</v>
@@ -8609,7 +8713,7 @@
         <v>84</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="I104" s="6">
         <v>38.0</v>
@@ -8618,31 +8722,35 @@
         <v>31738.0</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="L104" s="9"/>
+        <v>692</v>
+      </c>
+      <c r="L104" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M104" s="6" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="P104" s="6" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="Q104" s="9"/>
     </row>
     <row r="105">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="38" t="s">
+        <v>220</v>
+      </c>
       <c r="C105" s="8">
         <v>104.0</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>481</v>
@@ -8651,7 +8759,7 @@
         <v>29</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="I105" s="6">
         <v>22.0</v>
@@ -8660,31 +8768,35 @@
         <v>37380.0</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="L105" s="9"/>
+        <v>698</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M105" s="6" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="P105" s="6" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="Q105" s="9"/>
     </row>
     <row r="106">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="38" t="s">
+        <v>220</v>
+      </c>
       <c r="C106" s="8">
         <v>105.0</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>19</v>
@@ -8693,7 +8805,7 @@
         <v>168</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="I106" s="6">
         <v>35.0</v>
@@ -8702,28 +8814,32 @@
         <v>32736.0</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="L106" s="9"/>
+        <v>705</v>
+      </c>
+      <c r="L106" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M106" s="6" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="P106" s="6" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="Q106" s="9"/>
     </row>
     <row r="107">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="38" t="s">
+        <v>220</v>
+      </c>
       <c r="C107" s="8">
         <v>106.0</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>98</v>
@@ -8732,10 +8848,10 @@
         <v>481</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="I107" s="6">
         <v>29.0</v>
@@ -8744,28 +8860,32 @@
         <v>34730.0</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="L107" s="9"/>
+        <v>712</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M107" s="6" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="P107" s="6" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="Q107" s="9"/>
     </row>
     <row r="108">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="38" t="s">
+        <v>220</v>
+      </c>
       <c r="C108" s="8">
         <v>107.0</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>174</v>
@@ -8777,7 +8897,7 @@
         <v>596</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="I108" s="6">
         <v>20.0</v>
@@ -8786,31 +8906,35 @@
         <v>38186.0</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="L108" s="9"/>
+        <v>717</v>
+      </c>
+      <c r="L108" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M108" s="6" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="P108" s="6" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="Q108" s="9"/>
     </row>
     <row r="109">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="38" t="s">
+        <v>220</v>
+      </c>
       <c r="C109" s="8">
         <v>108.0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>481</v>
@@ -8819,7 +8943,7 @@
         <v>532</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="I109" s="6">
         <v>26.0</v>
@@ -8828,31 +8952,35 @@
         <v>35820.0</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="L109" s="9"/>
+        <v>724</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M109" s="6" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="P109" s="6" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="Q109" s="9"/>
     </row>
     <row r="110">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="38" t="s">
+        <v>220</v>
+      </c>
       <c r="C110" s="8">
         <v>109.0</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>19</v>
@@ -8861,7 +8989,7 @@
         <v>99</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="I110" s="6">
         <v>40.0</v>
@@ -8870,31 +8998,35 @@
         <v>30771.0</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="L110" s="9"/>
+        <v>731</v>
+      </c>
+      <c r="L110" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M110" s="6" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="P110" s="6" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="Q110" s="9"/>
     </row>
     <row r="111">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="38" t="s">
+        <v>220</v>
+      </c>
       <c r="C111" s="8">
         <v>110.0</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>481</v>
@@ -8903,7 +9035,7 @@
         <v>287</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="I111" s="6">
         <v>28.0</v>
@@ -8912,17 +9044,19 @@
         <v>35150.0</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="L111" s="9"/>
+        <v>738</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M111" s="6" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="P111" s="6" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="Q111" s="9"/>
     </row>
@@ -8945,7 +9079,7 @@
         <v>486</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="I112" s="6">
         <v>30.0</v>
@@ -8954,17 +9088,17 @@
         <v>34575.0</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="L112" s="9"/>
       <c r="M112" s="6" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="P112" s="6" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="Q112" s="9"/>
     </row>
@@ -8975,10 +9109,10 @@
         <v>112.0</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>481</v>
@@ -8987,7 +9121,7 @@
         <v>138</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="I113" s="6">
         <v>28.0</v>
@@ -8996,17 +9130,17 @@
         <v>35167.0</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="L113" s="9"/>
       <c r="M113" s="6" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="P113" s="6" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="Q113" s="9"/>
     </row>
@@ -9017,19 +9151,19 @@
         <v>113.0</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="I114" s="6">
         <v>30.0</v>
@@ -9038,17 +9172,17 @@
         <v>34641.0</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="L114" s="9"/>
       <c r="M114" s="6" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="P114" s="6" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="Q114" s="9"/>
     </row>
@@ -9059,19 +9193,19 @@
         <v>114.0</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="I115" s="6">
         <v>30.0</v>
@@ -9080,17 +9214,17 @@
         <v>34333.0</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="L115" s="9"/>
       <c r="M115" s="6" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="P115" s="6" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="Q115" s="9"/>
     </row>
@@ -9101,10 +9235,10 @@
         <v>115.0</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>19</v>
@@ -9113,7 +9247,7 @@
         <v>567</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="I116" s="6">
         <v>36.0</v>
@@ -9122,17 +9256,17 @@
         <v>32412.0</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="L116" s="9"/>
       <c r="M116" s="6" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="N116" s="6" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="P116" s="6" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="Q116" s="9"/>
     </row>
@@ -9143,10 +9277,10 @@
         <v>116.0</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>481</v>
@@ -9155,7 +9289,7 @@
         <v>342</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="I117" s="6">
         <v>30.0</v>
@@ -9164,17 +9298,17 @@
         <v>34336.0</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="L117" s="9"/>
       <c r="M117" s="6" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="N117" s="6" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="P117" s="6" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="Q117" s="9"/>
     </row>
@@ -9185,10 +9319,10 @@
         <v>117.0</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>19</v>
@@ -9197,7 +9331,7 @@
         <v>201</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="I118" s="6">
         <v>28.0</v>
@@ -9206,17 +9340,17 @@
         <v>35330.0</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="L118" s="9"/>
       <c r="M118" s="6" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="N118" s="6" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="P118" s="6" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="Q118" s="9"/>
     </row>
@@ -9227,10 +9361,10 @@
         <v>118.0</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>481</v>
@@ -9239,7 +9373,7 @@
         <v>106</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="I119" s="6">
         <v>29.0</v>
@@ -9248,17 +9382,17 @@
         <v>34850.0</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="L119" s="9"/>
       <c r="M119" s="6" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="N119" s="6" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="P119" s="6" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="Q119" s="9"/>
     </row>
@@ -9269,10 +9403,10 @@
         <v>119.0</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>19</v>
@@ -9281,7 +9415,7 @@
         <v>342</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="I120" s="6">
         <v>31.0</v>
@@ -9290,17 +9424,17 @@
         <v>34149.0</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="L120" s="9"/>
       <c r="M120" s="6" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="P120" s="6" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="Q120" s="9"/>
     </row>
@@ -9320,10 +9454,10 @@
         <v>481</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="I121" s="6">
         <v>36.0</v>
@@ -9332,16 +9466,16 @@
         <v>32160.0</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="M121" s="8" t="s">
-        <v>786</v>
+        <v>797</v>
+      </c>
+      <c r="M121" s="39" t="s">
+        <v>798</v>
       </c>
       <c r="N121" s="6" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="P121" s="6" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="Q121" s="9"/>
     </row>
@@ -9352,19 +9486,19 @@
         <v>121.0</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="I122" s="6">
         <v>38.0</v>
@@ -9373,16 +9507,19 @@
         <v>31600.0</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>792</v>
+        <v>804</v>
+      </c>
+      <c r="L122" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M122" s="6" t="s">
         <v>95</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="P122" s="6" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="Q122" s="9"/>
     </row>
@@ -9393,19 +9530,19 @@
         <v>122.0</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="I123" s="6">
         <v>22.0</v>
@@ -9414,16 +9551,19 @@
         <v>37532.0</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>797</v>
+        <v>809</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M123" s="6" t="s">
         <v>102</v>
       </c>
       <c r="N123" s="6" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="P123" s="6" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="Q123" s="9"/>
     </row>
@@ -9434,37 +9574,40 @@
         <v>123.0</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="I124" s="6">
         <v>36.0</v>
       </c>
       <c r="J124" s="7">
-        <v>32184.0</v>
+        <v>32175.0</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>803</v>
+        <v>815</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M124" s="12" t="s">
         <v>109</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="P124" s="6" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="Q124" s="9"/>
     </row>
@@ -9475,19 +9618,19 @@
         <v>124.0</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="I125" s="6">
         <v>34.0</v>
@@ -9496,16 +9639,19 @@
         <v>33108.0</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>809</v>
+        <v>821</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M125" s="6" t="s">
         <v>117</v>
       </c>
       <c r="N125" s="6" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="P125" s="6" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="Q125" s="9"/>
     </row>
@@ -9516,37 +9662,40 @@
         <v>125.0</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="I126" s="6">
         <v>27.0</v>
       </c>
       <c r="J126" s="28">
-        <v>35735.0</v>
+        <v>35705.0</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>815</v>
+        <v>827</v>
+      </c>
+      <c r="L126" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M126" s="6" t="s">
         <v>125</v>
       </c>
       <c r="N126" s="6" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="P126" s="6" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="Q126" s="9"/>
     </row>
@@ -9557,19 +9706,19 @@
         <v>126.0</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="I127" s="6">
         <v>31.0</v>
@@ -9578,16 +9727,19 @@
         <v>34111.0</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>821</v>
+        <v>833</v>
+      </c>
+      <c r="L127" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M127" s="6" t="s">
         <v>132</v>
       </c>
       <c r="N127" s="6" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="P127" s="6" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="Q127" s="9"/>
     </row>
@@ -9601,16 +9753,16 @@
         <v>258</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="I128" s="6">
         <v>37.0</v>
@@ -9619,16 +9771,19 @@
         <v>31897.0</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>826</v>
+        <v>838</v>
+      </c>
+      <c r="L128" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M128" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N128" s="6" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="P128" s="6" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="Q128" s="9"/>
     </row>
@@ -9639,19 +9794,19 @@
         <v>128.0</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="I129" s="6">
         <v>34.0</v>
@@ -9660,16 +9815,19 @@
         <v>33081.0</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>832</v>
+        <v>844</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M129" s="6" t="s">
         <v>149</v>
       </c>
       <c r="N129" s="6" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="P129" s="6" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="Q129" s="9"/>
     </row>
@@ -9680,19 +9838,19 @@
         <v>129.0</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="I130" s="6">
         <v>35.0</v>
@@ -9701,16 +9859,19 @@
         <v>32570.0</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>838</v>
+        <v>850</v>
+      </c>
+      <c r="L130" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M130" s="6" t="s">
         <v>156</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="P130" s="6" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="Q130" s="9"/>
     </row>
@@ -9721,37 +9882,40 @@
         <v>130.0</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="I131" s="6">
         <v>32.0</v>
       </c>
       <c r="J131" s="28">
-        <v>33725.0</v>
+        <v>33749.0</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>844</v>
+        <v>856</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M131" s="6" t="s">
         <v>163</v>
       </c>
       <c r="N131" s="6" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="P131" s="6" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="Q131" s="9"/>
     </row>
@@ -9762,7 +9926,7 @@
         <v>131.0</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>121</v>
@@ -9771,10 +9935,10 @@
         <v>19</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="I132" s="6">
         <v>24.0</v>
@@ -9783,16 +9947,19 @@
         <v>36650.0</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>849</v>
+        <v>861</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M132" s="6" t="s">
         <v>171</v>
       </c>
       <c r="N132" s="6" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="P132" s="6" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="Q132" s="9"/>
     </row>
@@ -9803,19 +9970,19 @@
         <v>132.0</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="I133" s="6">
         <v>37.0</v>
@@ -9824,16 +9991,19 @@
         <v>31965.0</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>855</v>
+        <v>867</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M133" s="6" t="s">
         <v>177</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="P133" s="6" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="Q133" s="9"/>
     </row>
@@ -9844,37 +10014,40 @@
         <v>133.0</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="F134" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="I134" s="6">
         <v>33.0</v>
       </c>
       <c r="J134" s="7">
-        <v>33521.0</v>
+        <v>33516.0</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>861</v>
+        <v>873</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M134" s="6" t="s">
         <v>184</v>
       </c>
       <c r="N134" s="6" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="P134" s="6" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="Q134" s="9"/>
     </row>
@@ -9894,10 +10067,10 @@
         <v>481</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="I135" s="6">
         <v>27.0</v>
@@ -9906,16 +10079,19 @@
         <v>35519.0</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>865</v>
+        <v>877</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M135" s="6" t="s">
         <v>190</v>
       </c>
       <c r="N135" s="6" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="P135" s="6" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="Q135" s="9"/>
     </row>
@@ -9926,37 +10102,40 @@
         <v>135.0</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="F136" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="I136" s="6">
         <v>40.0</v>
       </c>
       <c r="J136" s="7">
-        <v>30907.0</v>
+        <v>30913.0</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>871</v>
+        <v>883</v>
+      </c>
+      <c r="L136" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M136" s="6" t="s">
         <v>197</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="P136" s="6" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="Q136" s="9"/>
     </row>
@@ -9967,37 +10146,38 @@
         <v>136.0</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="I137" s="6">
         <v>27.0</v>
       </c>
       <c r="J137" s="28">
-        <v>35674.0</v>
+        <v>35695.0</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>877</v>
-      </c>
+        <v>889</v>
+      </c>
+      <c r="L137" s="6"/>
       <c r="M137" s="6" t="s">
         <v>204</v>
       </c>
       <c r="N137" s="6" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="P137" s="6" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="Q137" s="9"/>
     </row>
@@ -10008,37 +10188,38 @@
         <v>137.0</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="F138" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="I138" s="6">
         <v>22.0</v>
       </c>
       <c r="J138" s="7">
-        <v>37418.0</v>
+        <v>37426.0</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>883</v>
-      </c>
+        <v>895</v>
+      </c>
+      <c r="L138" s="40"/>
       <c r="M138" s="6" t="s">
         <v>211</v>
       </c>
       <c r="N138" s="6" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="P138" s="6" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="Q138" s="9"/>
     </row>
@@ -10049,19 +10230,19 @@
         <v>138.0</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="I139" s="6">
         <v>34.0</v>
@@ -10070,16 +10251,16 @@
         <v>33130.0</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
       <c r="M139" s="6" t="s">
         <v>217</v>
       </c>
       <c r="N139" s="6" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="P139" s="6" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="Q139" s="9"/>
     </row>
@@ -10090,19 +10271,19 @@
         <v>139.0</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="F140" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="I140" s="6">
         <v>38.0</v>
@@ -10111,16 +10292,16 @@
         <v>31527.0</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="M140" s="6" t="s">
         <v>226</v>
       </c>
       <c r="N140" s="6" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="P140" s="6" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="Q140" s="9"/>
     </row>
@@ -10131,7 +10312,7 @@
         <v>140.0</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>222</v>
@@ -10140,10 +10321,10 @@
         <v>481</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="I141" s="6">
         <v>40.0</v>
@@ -10152,16 +10333,16 @@
         <v>30703.0</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="M141" s="6" t="s">
         <v>234</v>
       </c>
       <c r="N141" s="6" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="P141" s="6" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="Q141" s="9"/>
     </row>
@@ -10175,16 +10356,16 @@
         <v>159</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="F142" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="I142" s="6">
         <v>34.0</v>
@@ -10193,16 +10374,16 @@
         <v>33010.0</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="M142" s="6" t="s">
         <v>242</v>
       </c>
       <c r="N142" s="6" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="P142" s="6" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="Q142" s="9"/>
     </row>
@@ -10216,34 +10397,34 @@
         <v>136</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="I143" s="6">
         <v>28.0</v>
       </c>
       <c r="J143" s="28">
-        <v>35217.0</v>
+        <v>35224.0</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="M143" s="6" t="s">
         <v>248</v>
       </c>
       <c r="N143" s="6" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="P143" s="6" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="Q143" s="9"/>
     </row>
@@ -10254,19 +10435,19 @@
         <v>143.0</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="F144" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="I144" s="6">
         <v>37.0</v>
@@ -10275,16 +10456,16 @@
         <v>31802.0</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="M144" s="6" t="s">
         <v>255</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="P144" s="6" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="Q144" s="9"/>
     </row>
@@ -10295,37 +10476,37 @@
         <v>144.0</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
       <c r="F145" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="I145" s="6">
         <v>24.0</v>
       </c>
       <c r="J145" s="7">
-        <v>36748.0</v>
+        <v>36756.0</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
       <c r="M145" s="6" t="s">
         <v>262</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="P145" s="6" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="Q145" s="9"/>
     </row>
@@ -10339,16 +10520,16 @@
         <v>17</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="F146" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="I146" s="6">
         <v>38.0</v>
@@ -10357,16 +10538,16 @@
         <v>31461.0</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="M146" s="6" t="s">
         <v>268</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
       <c r="P146" s="6" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
       <c r="Q146" s="9"/>
     </row>
@@ -10377,19 +10558,19 @@
         <v>146.0</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="F147" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="I147" s="6">
         <v>30.0</v>
@@ -10398,16 +10579,16 @@
         <v>34359.0</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="M147" s="6" t="s">
         <v>275</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="P147" s="6" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="Q147" s="9"/>
     </row>
@@ -10418,19 +10599,19 @@
         <v>147.0</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="F148" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="I148" s="6">
         <v>23.0</v>
@@ -10439,16 +10620,16 @@
         <v>37030.0</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="M148" s="6" t="s">
         <v>282</v>
       </c>
       <c r="N148" s="6" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
       <c r="P148" s="6" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
       <c r="Q148" s="9"/>
     </row>
@@ -10459,19 +10640,19 @@
         <v>148.0</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="F149" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="I149" s="6">
         <v>26.0</v>
@@ -10480,16 +10661,16 @@
         <v>35909.0</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="M149" s="6" t="s">
         <v>290</v>
       </c>
       <c r="N149" s="6" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="P149" s="6" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="Q149" s="9"/>
     </row>
@@ -10500,37 +10681,37 @@
         <v>149.0</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
       <c r="F150" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="I150" s="6">
         <v>29.0</v>
       </c>
       <c r="J150" s="28">
-        <v>34951.0</v>
+        <v>34947.0</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
       <c r="M150" s="6" t="s">
         <v>297</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="P150" s="6" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="Q150" s="9"/>
     </row>
@@ -10541,37 +10722,37 @@
         <v>150.0</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="F151" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
       <c r="I151" s="6">
         <v>28.0</v>
       </c>
       <c r="J151" s="7">
-        <v>35112.0</v>
+        <v>35113.0</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="M151" s="6" t="s">
         <v>304</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
       <c r="P151" s="6" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
       <c r="Q151" s="9"/>
     </row>
@@ -10582,7 +10763,7 @@
         <v>151.0</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>271</v>
@@ -10591,10 +10772,10 @@
         <v>19</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="I152" s="6">
         <v>25.0</v>
@@ -10603,16 +10784,16 @@
         <v>36326.0</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="M152" s="6" t="s">
         <v>310</v>
       </c>
       <c r="N152" s="6" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="P152" s="6" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="Q152" s="9"/>
     </row>
@@ -10623,19 +10804,19 @@
         <v>152.0</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="F153" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="I153" s="6">
         <v>26.0</v>
@@ -10644,16 +10825,16 @@
         <v>35803.0</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="M153" s="6" t="s">
         <v>318</v>
       </c>
       <c r="N153" s="6" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="P153" s="6" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="Q153" s="9"/>
     </row>
@@ -10667,16 +10848,16 @@
         <v>354</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="F154" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="I154" s="6">
         <v>28.0</v>
@@ -10685,16 +10866,16 @@
         <v>35413.0</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="M154" s="6" t="s">
         <v>324</v>
       </c>
       <c r="N154" s="6" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="P154" s="6" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="Q154" s="9"/>
     </row>
@@ -10705,19 +10886,19 @@
         <v>154.0</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
       <c r="F155" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="I155" s="6">
         <v>27.0</v>
@@ -10726,16 +10907,16 @@
         <v>35631.0</v>
       </c>
       <c r="K155" s="6" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="M155" s="6" t="s">
         <v>516</v>
       </c>
       <c r="N155" s="6" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="P155" s="6" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="Q155" s="9"/>
     </row>
@@ -10746,19 +10927,19 @@
         <v>155.0</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
       <c r="F156" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
       <c r="I156" s="6">
         <v>38.0</v>
@@ -10767,16 +10948,16 @@
         <v>31441.0</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="M156" s="6" t="s">
         <v>522</v>
       </c>
       <c r="N156" s="6" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="P156" s="6" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="Q156" s="9"/>
     </row>
@@ -10787,19 +10968,19 @@
         <v>156.0</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
       <c r="F157" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
       <c r="I157" s="6">
         <v>30.0</v>
@@ -10808,16 +10989,16 @@
         <v>34412.0</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="M157" s="6" t="s">
         <v>528</v>
       </c>
       <c r="N157" s="6" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="P157" s="6" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="Q157" s="9"/>
     </row>
@@ -10831,16 +11012,16 @@
         <v>340</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="F158" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
       <c r="I158" s="6">
         <v>22.0</v>
@@ -10849,16 +11030,16 @@
         <v>37468.0</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
       <c r="M158" s="6" t="s">
         <v>535</v>
       </c>
       <c r="N158" s="6" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="P158" s="6" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="Q158" s="9"/>
     </row>
@@ -10869,37 +11050,37 @@
         <v>158.0</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
       <c r="F159" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="I159" s="6">
         <v>40.0</v>
       </c>
       <c r="J159" s="28">
-        <v>30864.0</v>
+        <v>30871.0</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
       <c r="M159" s="6" t="s">
         <v>542</v>
       </c>
       <c r="N159" s="6" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="P159" s="6" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="Q159" s="9"/>
     </row>
@@ -10910,7 +11091,7 @@
         <v>159.0</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>104</v>
@@ -10919,10 +11100,10 @@
         <v>19</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
       <c r="I160" s="6">
         <v>31.0</v>
@@ -10931,16 +11112,16 @@
         <v>33977.0</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="M160" s="6" t="s">
         <v>547</v>
       </c>
       <c r="N160" s="6" t="s">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="P160" s="6" t="s">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="Q160" s="9"/>
     </row>
@@ -10954,34 +11135,34 @@
         <v>221</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>1009</v>
+        <v>1021</v>
       </c>
       <c r="F161" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
       <c r="I161" s="6">
         <v>25.0</v>
       </c>
       <c r="J161" s="7">
-        <v>36204.0</v>
+        <v>36206.0</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>1012</v>
+        <v>1024</v>
       </c>
       <c r="M161" s="6" t="s">
         <v>552</v>
       </c>
       <c r="N161" s="6" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="P161" s="6" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="Q161" s="9"/>
     </row>
@@ -10992,19 +11173,19 @@
         <v>161.0</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="F162" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="I162" s="6">
         <v>22.0</v>
@@ -11013,16 +11194,16 @@
         <v>37339.0</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>1018</v>
+        <v>1030</v>
       </c>
       <c r="M162" s="6" t="s">
         <v>558</v>
       </c>
       <c r="N162" s="6" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="P162" s="6" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="Q162" s="9"/>
     </row>
@@ -11036,16 +11217,16 @@
         <v>250</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>1020</v>
+        <v>1032</v>
       </c>
       <c r="F163" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="I163" s="6">
         <v>26.0</v>
@@ -11054,16 +11235,16 @@
         <v>35895.0</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="M163" s="6" t="s">
         <v>564</v>
       </c>
       <c r="N163" s="6" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="P163" s="6" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="Q163" s="9"/>
     </row>
@@ -11074,19 +11255,19 @@
         <v>163.0</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
       <c r="F164" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>1027</v>
+        <v>1039</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>1028</v>
+        <v>1040</v>
       </c>
       <c r="I164" s="6">
         <v>37.0</v>
@@ -11095,16 +11276,16 @@
         <v>31938.0</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>1029</v>
+        <v>1041</v>
       </c>
       <c r="M164" s="6" t="s">
         <v>570</v>
       </c>
       <c r="N164" s="6" t="s">
-        <v>1030</v>
+        <v>1042</v>
       </c>
       <c r="P164" s="6" t="s">
-        <v>1030</v>
+        <v>1042</v>
       </c>
       <c r="Q164" s="9"/>
     </row>
@@ -11115,19 +11296,19 @@
         <v>164.0</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>1031</v>
+        <v>1043</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>1032</v>
+        <v>1044</v>
       </c>
       <c r="F165" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>1033</v>
+        <v>1045</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>1034</v>
+        <v>1046</v>
       </c>
       <c r="I165" s="6">
         <v>26.0</v>
@@ -11136,16 +11317,16 @@
         <v>35816.0</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>1035</v>
+        <v>1047</v>
       </c>
       <c r="M165" s="6" t="s">
         <v>576</v>
       </c>
       <c r="N165" s="6" t="s">
-        <v>1036</v>
+        <v>1048</v>
       </c>
       <c r="P165" s="6" t="s">
-        <v>1036</v>
+        <v>1048</v>
       </c>
       <c r="Q165" s="9"/>
     </row>
@@ -11156,7 +11337,7 @@
         <v>165.0</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>347</v>
@@ -11165,10 +11346,10 @@
         <v>19</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="I166" s="6">
         <v>27.0</v>
@@ -11177,16 +11358,16 @@
         <v>35663.0</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="M166" s="6" t="s">
         <v>581</v>
       </c>
       <c r="N166" s="6" t="s">
-        <v>1041</v>
+        <v>1053</v>
       </c>
       <c r="P166" s="6" t="s">
-        <v>1041</v>
+        <v>1053</v>
       </c>
       <c r="Q166" s="9"/>
     </row>
@@ -11197,19 +11378,19 @@
         <v>166.0</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>1042</v>
+        <v>1054</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>1043</v>
+        <v>1055</v>
       </c>
       <c r="F167" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>1045</v>
+        <v>1057</v>
       </c>
       <c r="I167" s="6">
         <v>31.0</v>
@@ -11218,16 +11399,16 @@
         <v>33987.0</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
       <c r="M167" s="6" t="s">
         <v>586</v>
       </c>
       <c r="N167" s="6" t="s">
-        <v>1047</v>
+        <v>1059</v>
       </c>
       <c r="P167" s="6" t="s">
-        <v>1047</v>
+        <v>1059</v>
       </c>
       <c r="Q167" s="9"/>
     </row>
@@ -11238,19 +11419,19 @@
         <v>167.0</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>1048</v>
+        <v>1060</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>1049</v>
+        <v>1061</v>
       </c>
       <c r="F168" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>1050</v>
+        <v>1062</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>1051</v>
+        <v>1063</v>
       </c>
       <c r="I168" s="6">
         <v>36.0</v>
@@ -11259,16 +11440,16 @@
         <v>32402.0</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="M168" s="6" t="s">
         <v>592</v>
       </c>
       <c r="N168" s="6" t="s">
-        <v>1053</v>
+        <v>1065</v>
       </c>
       <c r="P168" s="6" t="s">
-        <v>1053</v>
+        <v>1065</v>
       </c>
       <c r="Q168" s="9"/>
     </row>
@@ -11282,16 +11463,16 @@
         <v>51</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>1054</v>
+        <v>1066</v>
       </c>
       <c r="F169" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>1055</v>
+        <v>1067</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="I169" s="6">
         <v>27.0</v>
@@ -11300,16 +11481,16 @@
         <v>35450.0</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>1057</v>
+        <v>1069</v>
       </c>
       <c r="M169" s="6" t="s">
         <v>599</v>
       </c>
       <c r="N169" s="6" t="s">
-        <v>1058</v>
+        <v>1070</v>
       </c>
       <c r="P169" s="6" t="s">
-        <v>1058</v>
+        <v>1070</v>
       </c>
       <c r="Q169" s="9"/>
     </row>
@@ -11320,19 +11501,19 @@
         <v>169.0</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>1059</v>
+        <v>1071</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>1060</v>
+        <v>1072</v>
       </c>
       <c r="F170" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>1061</v>
+        <v>1073</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>1062</v>
+        <v>1074</v>
       </c>
       <c r="I170" s="6">
         <v>36.0</v>
@@ -11341,16 +11522,16 @@
         <v>32463.0</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>1063</v>
+        <v>1075</v>
       </c>
       <c r="M170" s="6" t="s">
         <v>604</v>
       </c>
       <c r="N170" s="6" t="s">
-        <v>1064</v>
+        <v>1076</v>
       </c>
       <c r="P170" s="6" t="s">
-        <v>1064</v>
+        <v>1076</v>
       </c>
       <c r="Q170" s="9"/>
     </row>
@@ -11361,37 +11542,37 @@
         <v>170.0</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>1065</v>
+        <v>1077</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>1066</v>
+        <v>1078</v>
       </c>
       <c r="F171" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>1067</v>
+        <v>1079</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>1068</v>
+        <v>1080</v>
       </c>
       <c r="I171" s="6">
         <v>30.0</v>
       </c>
       <c r="J171" s="7">
-        <v>34618.0</v>
+        <v>34625.0</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>1069</v>
+        <v>1081</v>
       </c>
       <c r="M171" s="6" t="s">
         <v>609</v>
       </c>
       <c r="N171" s="6" t="s">
-        <v>1070</v>
+        <v>1082</v>
       </c>
       <c r="P171" s="6" t="s">
-        <v>1070</v>
+        <v>1082</v>
       </c>
       <c r="Q171" s="9"/>
     </row>
@@ -11402,19 +11583,19 @@
         <v>171.0</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>1071</v>
+        <v>1083</v>
       </c>
       <c r="F172" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>1072</v>
+        <v>1084</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="I172" s="6">
         <v>35.0</v>
@@ -11423,16 +11604,16 @@
         <v>32830.0</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>1074</v>
+        <v>1086</v>
       </c>
       <c r="M172" s="6" t="s">
         <v>615</v>
       </c>
       <c r="N172" s="6" t="s">
-        <v>1075</v>
+        <v>1087</v>
       </c>
       <c r="P172" s="6" t="s">
-        <v>1075</v>
+        <v>1087</v>
       </c>
       <c r="Q172" s="9"/>
     </row>
@@ -11443,19 +11624,19 @@
         <v>172.0</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>1076</v>
+        <v>1088</v>
       </c>
       <c r="F173" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>1077</v>
+        <v>1089</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>1078</v>
+        <v>1090</v>
       </c>
       <c r="I173" s="6">
         <v>26.0</v>
@@ -11464,16 +11645,16 @@
         <v>36036.0</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>1079</v>
+        <v>1091</v>
       </c>
       <c r="M173" s="6" t="s">
         <v>620</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>1080</v>
+        <v>1092</v>
       </c>
       <c r="P173" s="6" t="s">
-        <v>1080</v>
+        <v>1092</v>
       </c>
       <c r="Q173" s="9"/>
     </row>
@@ -11484,19 +11665,19 @@
         <v>173.0</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>1081</v>
+        <v>1093</v>
       </c>
       <c r="F174" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>1082</v>
+        <v>1094</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>1083</v>
+        <v>1095</v>
       </c>
       <c r="I174" s="6">
         <v>27.0</v>
@@ -11505,16 +11686,16 @@
         <v>35477.0</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>1084</v>
+        <v>1096</v>
       </c>
       <c r="M174" s="6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N174" s="6" t="s">
-        <v>1085</v>
+        <v>1097</v>
       </c>
       <c r="P174" s="6" t="s">
-        <v>1085</v>
+        <v>1097</v>
       </c>
       <c r="Q174" s="9"/>
     </row>
@@ -11525,19 +11706,19 @@
         <v>174.0</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
       <c r="F175" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>1086</v>
+        <v>1098</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="I175" s="6">
         <v>24.0</v>
@@ -11546,16 +11727,16 @@
         <v>36821.0</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="M175" s="6" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N175" s="6" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="P175" s="6" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="Q175" s="9"/>
     </row>
@@ -11566,19 +11747,19 @@
         <v>175.0</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>1090</v>
+        <v>1102</v>
       </c>
       <c r="F176" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>1091</v>
+        <v>1103</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="I176" s="6">
         <v>29.0</v>
@@ -11587,16 +11768,16 @@
         <v>34821.0</v>
       </c>
       <c r="K176" s="6" t="s">
-        <v>1093</v>
+        <v>1105</v>
       </c>
       <c r="M176" s="6" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="N176" s="6" t="s">
-        <v>1094</v>
+        <v>1106</v>
       </c>
       <c r="P176" s="6" t="s">
-        <v>1094</v>
+        <v>1106</v>
       </c>
       <c r="Q176" s="9"/>
     </row>
@@ -11607,37 +11788,37 @@
         <v>176.0</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>1095</v>
+        <v>1107</v>
       </c>
       <c r="F177" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>1096</v>
+        <v>1108</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>1097</v>
+        <v>1109</v>
       </c>
       <c r="I177" s="6">
         <v>30.0</v>
       </c>
       <c r="J177" s="7">
-        <v>34438.0</v>
+        <v>34443.0</v>
       </c>
       <c r="K177" s="6" t="s">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c r="M177" s="6" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="N177" s="6" t="s">
-        <v>1099</v>
+        <v>1111</v>
       </c>
       <c r="P177" s="6" t="s">
-        <v>1099</v>
+        <v>1111</v>
       </c>
       <c r="Q177" s="9"/>
     </row>
@@ -11648,19 +11829,19 @@
         <v>177.0</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="F178" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>1100</v>
+        <v>1112</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>1101</v>
+        <v>1113</v>
       </c>
       <c r="I178" s="6">
         <v>38.0</v>
@@ -11669,16 +11850,16 @@
         <v>31446.0</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>1102</v>
+        <v>1114</v>
       </c>
       <c r="M178" s="6" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="N178" s="6" t="s">
-        <v>1103</v>
+        <v>1115</v>
       </c>
       <c r="P178" s="6" t="s">
-        <v>1103</v>
+        <v>1115</v>
       </c>
       <c r="Q178" s="9"/>
     </row>
@@ -11692,16 +11873,16 @@
         <v>435</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>1104</v>
+        <v>1116</v>
       </c>
       <c r="F179" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>1105</v>
+        <v>1117</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>1106</v>
+        <v>1118</v>
       </c>
       <c r="I179" s="6">
         <v>28.0</v>
@@ -11710,16 +11891,16 @@
         <v>35093.0</v>
       </c>
       <c r="K179" s="6" t="s">
-        <v>1107</v>
+        <v>1119</v>
       </c>
       <c r="M179" s="6" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="N179" s="6" t="s">
-        <v>1108</v>
+        <v>1120</v>
       </c>
       <c r="P179" s="6" t="s">
-        <v>1108</v>
+        <v>1120</v>
       </c>
       <c r="Q179" s="9"/>
     </row>
@@ -11733,16 +11914,16 @@
         <v>37</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>1109</v>
+        <v>1121</v>
       </c>
       <c r="F180" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>1110</v>
+        <v>1122</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>1111</v>
+        <v>1123</v>
       </c>
       <c r="I180" s="6">
         <v>28.0</v>
@@ -11751,16 +11932,16 @@
         <v>35324.0</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>1112</v>
+        <v>1124</v>
       </c>
       <c r="M180" s="6" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="N180" s="6" t="s">
-        <v>1113</v>
+        <v>1125</v>
       </c>
       <c r="P180" s="6" t="s">
-        <v>1113</v>
+        <v>1125</v>
       </c>
       <c r="Q180" s="9"/>
     </row>
@@ -11780,30 +11961,30 @@
         <v>19</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>1114</v>
+        <v>1126</v>
       </c>
       <c r="H181" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I181" s="37">
+        <v>1127</v>
+      </c>
+      <c r="I181" s="41">
         <v>33.0</v>
       </c>
       <c r="J181" s="33">
         <v>33238.0</v>
       </c>
       <c r="K181" s="10" t="s">
-        <v>1116</v>
+        <v>1128</v>
       </c>
       <c r="L181" s="10"/>
       <c r="M181" s="10" t="s">
-        <v>1117</v>
+        <v>1129</v>
       </c>
       <c r="N181" s="10" t="s">
-        <v>1118</v>
+        <v>1130</v>
       </c>
       <c r="O181" s="10"/>
       <c r="P181" s="10" t="s">
-        <v>1118</v>
+        <v>1130</v>
       </c>
       <c r="Q181" s="10"/>
       <c r="R181" s="10"/>
@@ -12155,7 +12336,7 @@
     <row r="229">
       <c r="A229" s="8"/>
       <c r="B229" s="8" t="s">
-        <v>1119</v>
+        <v>1131</v>
       </c>
       <c r="C229" s="9"/>
       <c r="L229" s="9"/>
@@ -12164,13 +12345,13 @@
     <row r="230">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
-        <v>1120</v>
+        <v>1132</v>
       </c>
       <c r="C230" s="17" t="s">
-        <v>1121</v>
+        <v>1133</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>1122</v>
+        <v>1134</v>
       </c>
       <c r="L230" s="9"/>
       <c r="Q230" s="9"/>
@@ -12178,13 +12359,13 @@
     <row r="231">
       <c r="A231" s="18"/>
       <c r="B231" s="18" t="s">
-        <v>1123</v>
+        <v>1135</v>
       </c>
       <c r="C231" s="18" t="s">
-        <v>1121</v>
+        <v>1133</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>1124</v>
+        <v>1136</v>
       </c>
       <c r="L231" s="9"/>
       <c r="Q231" s="9"/>
@@ -12192,55 +12373,55 @@
     <row r="232">
       <c r="A232" s="24"/>
       <c r="B232" s="24" t="s">
-        <v>1125</v>
+        <v>1137</v>
       </c>
       <c r="C232" s="24" t="s">
-        <v>1121</v>
+        <v>1133</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>1122</v>
+        <v>1134</v>
       </c>
       <c r="L232" s="9"/>
       <c r="Q232" s="9"/>
     </row>
     <row r="233">
-      <c r="A233" s="38"/>
+      <c r="A233" s="42"/>
       <c r="B233" s="4" t="s">
-        <v>1126</v>
+        <v>1138</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>1121</v>
+        <v>1133</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>1122</v>
+        <v>1134</v>
       </c>
       <c r="L233" s="9"/>
       <c r="Q233" s="9"/>
     </row>
     <row r="234">
-      <c r="A234" s="39"/>
+      <c r="A234" s="43"/>
       <c r="B234" s="20" t="s">
-        <v>1127</v>
+        <v>1139</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>1121</v>
+        <v>1133</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>1122</v>
+        <v>1134</v>
       </c>
       <c r="L234" s="9"/>
       <c r="Q234" s="9"/>
     </row>
     <row r="235">
-      <c r="A235" s="40"/>
+      <c r="A235" s="44"/>
       <c r="B235" s="23" t="s">
-        <v>1128</v>
+        <v>1140</v>
       </c>
       <c r="C235" s="23" t="s">
-        <v>1121</v>
+        <v>1133</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>1122</v>
+        <v>1134</v>
       </c>
       <c r="L235" s="9"/>
       <c r="Q235" s="9"/>
@@ -12248,13 +12429,13 @@
     <row r="236">
       <c r="A236" s="26"/>
       <c r="B236" s="27" t="s">
-        <v>1129</v>
+        <v>1141</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>1121</v>
+        <v>1133</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>1122</v>
+        <v>1134</v>
       </c>
       <c r="L236" s="9"/>
       <c r="Q236" s="9"/>
@@ -12262,24 +12443,27 @@
     <row r="237">
       <c r="A237" s="35"/>
       <c r="B237" s="36" t="s">
-        <v>1130</v>
+        <v>1142</v>
       </c>
       <c r="C237" s="36" t="s">
-        <v>1121</v>
+        <v>1133</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>1131</v>
+        <v>1143</v>
       </c>
       <c r="L237" s="9"/>
       <c r="Q237" s="9"/>
     </row>
     <row r="238">
-      <c r="A238" s="9"/>
-      <c r="B238" s="8" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C238" s="8" t="s">
-        <v>1121</v>
+      <c r="A238" s="37"/>
+      <c r="B238" s="38" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C238" s="38" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>1134</v>
       </c>
       <c r="L238" s="9"/>
       <c r="Q238" s="9"/>

--- a/Profiles _ BFJ.xlsx
+++ b/Profiles _ BFJ.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="1186">
   <si>
     <t>Setup?</t>
   </si>
@@ -1699,7 +1699,7 @@
     <t>Yoga Enthusiast 🧘 | Finding balance on the mat and in life.</t>
   </si>
   <si>
-    <t>masonthompson@gmail.com</t>
+    <t>masonthompson737@gmail.com</t>
   </si>
   <si>
     <t>5r5EVZy6YyzX</t>
@@ -1708,6 +1708,9 @@
     <t>@MasonYoga</t>
   </si>
   <si>
+    <t>@MasonYoga7</t>
+  </si>
+  <si>
     <t>Amelia</t>
   </si>
   <si>
@@ -1717,7 +1720,7 @@
     <t>Movie Buff 🎥 | Always quoting movies, popcorn in hand.</t>
   </si>
   <si>
-    <t>ameliagarcia@gmail.com</t>
+    <t>ameliagarcia5456@gmail.com</t>
   </si>
   <si>
     <t>DzwYCmSuhwG!</t>
@@ -1735,7 +1738,7 @@
     <t>Cooking Queen/King 🍳 | Testing recipes and tasting the world one dish at a time.</t>
   </si>
   <si>
-    <t>alexandermartinez@gmail.com</t>
+    <t>alexandermartinez7427@gmail.com</t>
   </si>
   <si>
     <t>AnLivUPfZ6BW</t>
@@ -1744,6 +1747,9 @@
     <t>@AlexCooks</t>
   </si>
   <si>
+    <t>@AlexCooks24</t>
+  </si>
+  <si>
     <t>Harper</t>
   </si>
   <si>
@@ -1753,7 +1759,7 @@
     <t>Karaoke Star 🎤 | Singing like nobody’s watching (even when they are!).</t>
   </si>
   <si>
-    <t>harperrobinson@gmail.com</t>
+    <t>harperrobinson42@gmail.com</t>
   </si>
   <si>
     <t>yQe@uakQtsSc</t>
@@ -1762,13 +1768,16 @@
     <t>@HarperSings</t>
   </si>
   <si>
+    <t>@HarperSings1</t>
+  </si>
+  <si>
     <t>Clark</t>
   </si>
   <si>
     <t>Chess Champion ♟️ | Strategizing my next move on and off the board.</t>
   </si>
   <si>
-    <t>henryclark@gmail.com</t>
+    <t>henryclark2747@gmail.com</t>
   </si>
   <si>
     <t>RYv9Rn6YZ3B9</t>
@@ -1777,13 +1786,16 @@
     <t>@HenryChess</t>
   </si>
   <si>
+    <t>@HenryChess8</t>
+  </si>
+  <si>
     <t>Rodriguez</t>
   </si>
   <si>
     <t>Car Enthusiast 🚗 | Dreaming of engines and endless road trips.</t>
   </si>
   <si>
-    <t>ellarodriguez@gmail.com</t>
+    <t>ellarodriguez4379@gmail.com</t>
   </si>
   <si>
     <t>WajU$8WyhRyX</t>
@@ -1792,6 +1804,9 @@
     <t>@EllaCars</t>
   </si>
   <si>
+    <t>@EllaCars95</t>
+  </si>
+  <si>
     <t>Lewis</t>
   </si>
   <si>
@@ -1801,13 +1816,16 @@
     <t>Ocean Lover 🌊 | Scuba diving adventurer and sunset chaser.</t>
   </si>
   <si>
-    <t>jacklewis@gmail.com</t>
+    <t>jacklewis5639@gmail.com</t>
   </si>
   <si>
     <t>3WvZYczh!BQQ</t>
   </si>
   <si>
-    <t>@JackOcean</t>
+    <t>@jacklewis6136</t>
+  </si>
+  <si>
+    <t>@JackOcean54</t>
   </si>
   <si>
     <t>Lily</t>
@@ -1822,7 +1840,7 @@
     <t>Coffee Connoisseur | Brewing the perfect cup, one espresso at a time.</t>
   </si>
   <si>
-    <t>lilylee@gmail.com</t>
+    <t>lilylee3581@gmail.com</t>
   </si>
   <si>
     <t>tV5PEwQJjov!</t>
@@ -1831,13 +1849,16 @@
     <t>@LilyCoffee</t>
   </si>
   <si>
+    <t>@LilyCoffee5</t>
+  </si>
+  <si>
     <t>Samuel</t>
   </si>
   <si>
     <t>History Buff | Exploring the past to understand the present.</t>
   </si>
   <si>
-    <t>samuelwalker@gmail.com</t>
+    <t>samuelwalker2681@gmail.com</t>
   </si>
   <si>
     <t>8KiwxnV9cF$U</t>
@@ -1846,16 +1867,19 @@
     <t>@SamHistory</t>
   </si>
   <si>
+    <t>@SamHistory10</t>
+  </si>
+  <si>
     <t>Hall</t>
   </si>
   <si>
     <t>Cycling Enthusiast | Chasing sunsets and new trails on two wheels.</t>
   </si>
   <si>
-    <t>gracehall@gmail.com</t>
-  </si>
-  <si>
-    <t>4Sfuc42PPvKs</t>
+    <t>gracehall924@gmail.com</t>
+  </si>
+  <si>
+    <t>4Sfuc42P</t>
   </si>
   <si>
     <t>@GraceCycles</t>
@@ -1873,6 +1897,9 @@
     <t>elijahallen@gmail.com</t>
   </si>
   <si>
+    <t>not working</t>
+  </si>
+  <si>
     <t>NZ88NygQKTK!</t>
   </si>
   <si>
@@ -2257,10 +2284,10 @@
     <t>Potter | Shaping clay and creating handmade treasures.</t>
   </si>
   <si>
-    <t>ellaevans@gmail.com</t>
-  </si>
-  <si>
-    <t>xtJQjSqqQfHv</t>
+    <t>ellaevans635@gmail.com</t>
+  </si>
+  <si>
+    <t>necm7puj</t>
   </si>
   <si>
     <t>@EllaPottery</t>
@@ -2275,15 +2302,18 @@
     <t>Runner | Pounding the pavement one mile at a time.</t>
   </si>
   <si>
-    <t>isaacedwards@gmail.com</t>
-  </si>
-  <si>
-    <t>necm7puj$T6M</t>
+    <t>isaacedwards848@gmail.com]</t>
+  </si>
+  <si>
+    <t>jSqqQfHv</t>
   </si>
   <si>
     <t>@IsaacRuns</t>
   </si>
   <si>
+    <t>@IsaacRuns90</t>
+  </si>
+  <si>
     <t>Evelyn</t>
   </si>
   <si>
@@ -2293,10 +2323,10 @@
     <t>Calligraphy Artist | Turning words into works of art.</t>
   </si>
   <si>
-    <t>evelyncollins@gmail.com</t>
-  </si>
-  <si>
-    <t>kGS$qYXGgeVE</t>
+    <t>evelyncollins207@gmail.com</t>
+  </si>
+  <si>
+    <t>kGS$qYXG</t>
   </si>
   <si>
     <t>@EvelynWrites</t>
@@ -2314,15 +2344,18 @@
     <t>Amateur Astronomer | Exploring the universe from my backyard.</t>
   </si>
   <si>
-    <t>sebastianstewart@gmail.com</t>
-  </si>
-  <si>
-    <t>ai4bRhJkrMPT</t>
+    <t>sebastianstewart508@gmail.com</t>
+  </si>
+  <si>
+    <t>ai4bRhJk</t>
   </si>
   <si>
     <t>@SebAstro</t>
   </si>
   <si>
+    <t>@SebAstronom</t>
+  </si>
+  <si>
     <t>Sarah</t>
   </si>
   <si>
@@ -2332,10 +2365,10 @@
     <t>Craft Beer Lover | Sampling local brews and discovering new flavors.</t>
   </si>
   <si>
-    <t>sarahsanchez@gmail.com</t>
-  </si>
-  <si>
-    <t>Li3oBkHFpb2J</t>
+    <t>sarahsanchez9888@gmail.com</t>
+  </si>
+  <si>
+    <t>Li3oBkHF</t>
   </si>
   <si>
     <t>@SarahBrews</t>
@@ -2350,15 +2383,18 @@
     <t>Sailor | Navigating life one wave at a time.</t>
   </si>
   <si>
-    <t>nathanmorris@gmail.com</t>
-  </si>
-  <si>
-    <t>49V8fd7JuhUZ</t>
+    <t>nathanmorris826@gmail.com</t>
+  </si>
+  <si>
+    <t>49V8fd7J</t>
   </si>
   <si>
     <t>@NathanSails</t>
   </si>
   <si>
+    <t>@NathanSails65</t>
+  </si>
+  <si>
     <t>Penelope</t>
   </si>
   <si>
@@ -2368,15 +2404,18 @@
     <t>Meditation Practitioner | Seeking peace and mindfulness daily.</t>
   </si>
   <si>
-    <t>peneloperogers@gmail.com</t>
-  </si>
-  <si>
-    <t>x4EmSM4LUfuv</t>
+    <t>peneloperogers89@gmail.com</t>
+  </si>
+  <si>
+    <t>x4EmSM4L</t>
   </si>
   <si>
     <t>@PennyPeace</t>
   </si>
   <si>
+    <t>@PennyPeace22</t>
+  </si>
+  <si>
     <t>Dylan</t>
   </si>
   <si>
@@ -2386,10 +2425,10 @@
     <t>Film Critic | Watching and dissecting every scene.</t>
   </si>
   <si>
-    <t>dylanreed@gmail.com</t>
-  </si>
-  <si>
-    <t>Y!ct@UBtiKhq</t>
+    <t>dylanreed954@gmail.com</t>
+  </si>
+  <si>
+    <t>Y!ct@UBt</t>
   </si>
   <si>
     <t>@DylanFilms</t>
@@ -2404,10 +2443,10 @@
     <t>Urban Gardener | Growing greenery in the middle of the city.</t>
   </si>
   <si>
-    <t>eleanorcook@gmail.com</t>
-  </si>
-  <si>
-    <t>V6r@Jbvzv4fM</t>
+    <t>eleanorcook627@gmail.com</t>
+  </si>
+  <si>
+    <t>V6r@Jbvz</t>
   </si>
   <si>
     <t>@EllieGardens</t>
@@ -2419,15 +2458,18 @@
     <t>Woodworker | Building beauty with my own two hands.</t>
   </si>
   <si>
-    <t>leomorgan@gmail.com</t>
-  </si>
-  <si>
-    <t>Et!K5ZZrww</t>
+    <t>leomorgan7364@gmail.com</t>
+  </si>
+  <si>
+    <t>Et!K5ZZr</t>
   </si>
   <si>
     <t>@LeoBuilds</t>
   </si>
   <si>
+    <t>@LeoBuilds12</t>
+  </si>
+  <si>
     <t>Lillian</t>
   </si>
   <si>
@@ -2455,7 +2497,10 @@
     <t>Chess Enthusiast | Strategizing moves and thinking ahead.</t>
   </si>
   <si>
-    <t>cartermurphy625@gmail.com</t>
+    <t>cartermurphy921@gmail.com</t>
+  </si>
+  <si>
+    <t>Q4y@3Xp3</t>
   </si>
   <si>
     <t>@CarterChess</t>
@@ -2695,7 +2740,7 @@
     <t>Backpacker | Traveling light and discovering the world.</t>
   </si>
   <si>
-    <t>isaiahbrooks@gmail.com</t>
+    <t>isaiahbrooks570@gmail.com</t>
   </si>
   <si>
     <t>@IsaiahBackpacks</t>
@@ -2713,7 +2758,7 @@
     <t>Collector | Building a unique collection of stamps and coins.</t>
   </si>
   <si>
-    <t>addisonkelly@gmail.com</t>
+    <t>addisonkelly186@gmail.com</t>
   </si>
   <si>
     <t>@AddisonStamps</t>
@@ -2731,7 +2776,7 @@
     <t>Puzzle Maker | Designing challenges to keep minds sharp.</t>
   </si>
   <si>
-    <t>charlessanders@gmail.com</t>
+    <t>charlessanders506@gmail.com</t>
   </si>
   <si>
     <t>@CharliePuzzles</t>
@@ -2749,7 +2794,7 @@
     <t>Beekeeper | Supporting the buzz that sustains nature.</t>
   </si>
   <si>
-    <t>bellaprice@gmail.com</t>
+    <t>bellaprice166@gmail.com</t>
   </si>
   <si>
     <t>@BellaBuzz</t>
@@ -2764,7 +2809,7 @@
     <t>Rock Climber | Scaling new heights physically and mentally.</t>
   </si>
   <si>
-    <t>adambennett@gmail.com</t>
+    <t>adambennett795@gmail.com</t>
   </si>
   <si>
     <t>@AdamClimbs</t>
@@ -2779,7 +2824,7 @@
     <t>Podcast Listener | Always tuned in to the latest episodes.</t>
   </si>
   <si>
-    <t>rubywood@gmail.com</t>
+    <t>rubywood187@gmail.com</t>
   </si>
   <si>
     <t>@RubyPods</t>
@@ -2794,7 +2839,7 @@
     <t>Swimmer | Finding freedom in the water.</t>
   </si>
   <si>
-    <t>lucasbarnes@gmail.com</t>
+    <t>lucasbarnes788@gmail.com</t>
   </si>
   <si>
     <t>@LucasSwims</t>
@@ -2812,7 +2857,7 @@
     <t>Antique Hunter | Searching for treasures with a history.</t>
   </si>
   <si>
-    <t>auroraross@gmail.com</t>
+    <t>auroraross368@gmail.com</t>
   </si>
   <si>
     <t>@AuroraAntiques</t>
@@ -2830,7 +2875,7 @@
     <t>Vinyl Collector | Spinning records and enjoying the classics.</t>
   </si>
   <si>
-    <t>josephhenderson@gmail.com</t>
+    <t>josephhenderson098@gmail.com</t>
   </si>
   <si>
     <t>@JoeRecords</t>
@@ -2845,7 +2890,7 @@
     <t>Freelancer | Thriving on creativity and flexibility.</t>
   </si>
   <si>
-    <t>sophiecoleman@gmail.com</t>
+    <t>sophiecoleman900@gmail.com</t>
   </si>
   <si>
     <t>@SophFreelance</t>
@@ -2863,7 +2908,7 @@
     <t>Marathon Runner | Training for the long haul and loving the journey.</t>
   </si>
   <si>
-    <t>aaronjenkins@gmail.com</t>
+    <t>aaronjenkins354@gmail.com</t>
   </si>
   <si>
     <t>@AaronMarathons</t>
@@ -2881,7 +2926,7 @@
     <t>Traveler | Experiencing cultures and cuisines across the globe.</t>
   </si>
   <si>
-    <t>madelineperry@gmail.com</t>
+    <t>madelineperry47@gmail.com</t>
   </si>
   <si>
     <t>@MaddyTravels</t>
@@ -2899,7 +2944,7 @@
     <t>Hand Lettering Artist | Adding elegance to every word.</t>
   </si>
   <si>
-    <t>zacharypowell@gmail.com</t>
+    <t>zacharypowell656@gmail.com</t>
   </si>
   <si>
     <t>@ZachWrites</t>
@@ -2917,7 +2962,7 @@
     <t>Surfer | Catching waves and chasing the perfect ride.</t>
   </si>
   <si>
-    <t>milalong@gmail.com</t>
+    <t>milalong56@gmail.com</t>
   </si>
   <si>
     <t>@MilaWaves</t>
@@ -2935,7 +2980,7 @@
     <t>Historian | Researching and preserving stories of the past.</t>
   </si>
   <si>
-    <t>nicholaspatterson@gmail.com</t>
+    <t>nicholaspatterson776@gmail.com</t>
   </si>
   <si>
     <t>@NickHistories</t>
@@ -2950,7 +2995,7 @@
     <t>Coffee Roaster | Perfecting the art of every bean.</t>
   </si>
   <si>
-    <t>autumnhughes@gmail.com</t>
+    <t>autumnhughes556@gmail.com</t>
   </si>
   <si>
     <t>@AutumnRoasts</t>
@@ -2968,7 +3013,7 @@
     <t>Drone Pilot | Capturing breathtaking aerial views.</t>
   </si>
   <si>
-    <t>hunterflores@gmail.com</t>
+    <t>hunterflores232@gmail.com</t>
   </si>
   <si>
     <t>@HunterDrone</t>
@@ -2983,7 +3028,10 @@
     <t>Horseback Rider | Building bonds with majestic animals.</t>
   </si>
   <si>
-    <t>islawashington@gmail.com</t>
+    <t>islawashington65@gmail.com</t>
+  </si>
+  <si>
+    <t>C6v!7Mqk1</t>
   </si>
   <si>
     <t>@IslaHorses</t>
@@ -3001,7 +3049,10 @@
     <t>Mixologist | Creating cocktails with flair and flavor.</t>
   </si>
   <si>
-    <t>connorbutler@gmail.com</t>
+    <t>connorbutler502@gmail.com</t>
+  </si>
+  <si>
+    <t>ea5AxYHM</t>
   </si>
   <si>
     <t>@ConnorMix</t>
@@ -3019,7 +3070,10 @@
     <t>Community Volunteer | Giving back and making an impact.</t>
   </si>
   <si>
-    <t>clairesimmons@gmail.com</t>
+    <t>clairesimmons284@gmail.com</t>
+  </si>
+  <si>
+    <t>WShqd6eV</t>
   </si>
   <si>
     <t>@ClaireHelps</t>
@@ -3037,7 +3091,10 @@
     <t>Sci-Fi Enthusiast | Exploring galaxies through books and films.</t>
   </si>
   <si>
-    <t>jasonfoster@gmail.com</t>
+    <t>jasonfoster5434@gmail.com</t>
+  </si>
+  <si>
+    <t>ocEfgNaQ</t>
   </si>
   <si>
     <t>@JasonSci</t>
@@ -3052,7 +3109,10 @@
     <t>Rugby Player | Tackling challenges on and off the field.</t>
   </si>
   <si>
-    <t>juliagonzales@gmail.com</t>
+    <t>juliagonzales5163@gmail.com</t>
+  </si>
+  <si>
+    <t>ZYXGc!yU</t>
   </si>
   <si>
     <t>@JuliaTackles</t>
@@ -3070,7 +3130,10 @@
     <t>Car Enthusiast | Restoring vintage vehicles to their glory.</t>
   </si>
   <si>
-    <t>jordanbryant@gmail.com</t>
+    <t>jordanbryant731@gmail.com</t>
+  </si>
+  <si>
+    <t>39mQ4Ppy</t>
   </si>
   <si>
     <t>@JordanCars</t>
@@ -3085,7 +3148,10 @@
     <t>Stand-Up Paddler | Gliding across tranquil waters.</t>
   </si>
   <si>
-    <t>carolinealexander@gmail.com</t>
+    <t>carolinealexander80@gmail.com</t>
+  </si>
+  <si>
+    <t>GRtdb@Ua</t>
   </si>
   <si>
     <t>@CarolinePaddles</t>
@@ -3100,7 +3166,10 @@
     <t>Jewelry Maker | Crafting one-of-a-kind accessories.</t>
   </si>
   <si>
-    <t>adrianrussell@gmail.com</t>
+    <t>adrianrussell677@gmail.com</t>
+  </si>
+  <si>
+    <t>44T@SW!B</t>
   </si>
   <si>
     <t>@AdrianJewels</t>
@@ -3118,7 +3187,10 @@
     <t>Philosopher | Pondering life’s big questions.</t>
   </si>
   <si>
-    <t>sadiegriffin@gmail.com</t>
+    <t>sadiegriffin911@gmail.com</t>
+  </si>
+  <si>
+    <t>5r5EVZy6</t>
   </si>
   <si>
     <t>@SadiePhilosophizes</t>
@@ -3133,7 +3205,10 @@
     <t>Home Organizer | Finding beauty in functional spaces.</t>
   </si>
   <si>
-    <t>patrickdiaz@gmail.com</t>
+    <t>patrickdiaz184@gmail.com</t>
+  </si>
+  <si>
+    <t>DzwYCmSu</t>
   </si>
   <si>
     <t>@PatrickHome</t>
@@ -3151,7 +3226,10 @@
     <t>Watercolor Artist | Painting life’s moments with soft hues.</t>
   </si>
   <si>
-    <t>evahayes@gmail.com</t>
+    <t>evahayes171@gmail.com</t>
+  </si>
+  <si>
+    <t>AnLivUPf</t>
   </si>
   <si>
     <t>@EvaColors</t>
@@ -3169,7 +3247,10 @@
     <t>Mountain Biker | Riding rugged trails and chasing adrenaline.</t>
   </si>
   <si>
-    <t>justinmyers@gmail.com</t>
+    <t>justinmyers856@gmail.com</t>
+  </si>
+  <si>
+    <t>yQe@uakQ</t>
   </si>
   <si>
     <t>@JustinBikes</t>
@@ -3184,7 +3265,10 @@
     <t>Dog Trainer | Helping pups and their humans live in harmony.</t>
   </si>
   <si>
-    <t>aliceford@gmail.com</t>
+    <t>aliceford545@gmail.com</t>
+  </si>
+  <si>
+    <t>RYv9Rn6Y</t>
   </si>
   <si>
     <t>@AliceDogs</t>
@@ -3202,7 +3286,10 @@
     <t>Archery Hobbyist | Hitting the target with focus and precision.</t>
   </si>
   <si>
-    <t>nathanielhamilton@gmail.com</t>
+    <t>nathanielhamilton668@gmail.com</t>
+  </si>
+  <si>
+    <t>WajU$8Wy</t>
   </si>
   <si>
     <t>@NathanArchery</t>
@@ -3220,12 +3307,36 @@
     <t>Urban Planner | Designing spaces where people thrive.</t>
   </si>
   <si>
-    <t>yasmingraham@gmail.com</t>
+    <t>yasmingraham579@gmail.com</t>
+  </si>
+  <si>
+    <t>3WvZYczh</t>
   </si>
   <si>
     <t>@YasminDesigns</t>
   </si>
   <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Wallace</t>
+  </si>
+  <si>
+    <t>Joshuaville, Sweden</t>
+  </si>
+  <si>
+    <t>Triathlete | Conquering land, water, and road one event at a time.</t>
+  </si>
+  <si>
+    <t>davidwallace9868@gmail.com</t>
+  </si>
+  <si>
+    <t>8KiwxnV9</t>
+  </si>
+  <si>
+    <t>@DavidTriathlete</t>
+  </si>
+  <si>
     <t>Sullivan</t>
   </si>
   <si>
@@ -3235,30 +3346,15 @@
     <t>Candle Maker | Pouring creativity into every handmade scent.</t>
   </si>
   <si>
-    <t>clarasullivan@gmail.com</t>
+    <t>clarasullivan275@gmail.com</t>
+  </si>
+  <si>
+    <t>tV5PEwQJ</t>
   </si>
   <si>
     <t>@ClaraCandles</t>
   </si>
   <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Wallace</t>
-  </si>
-  <si>
-    <t>Joshuaville, Sweden</t>
-  </si>
-  <si>
-    <t>Triathlete | Conquering land, water, and road one event at a time.</t>
-  </si>
-  <si>
-    <t>davidwallace@gmail.com</t>
-  </si>
-  <si>
-    <t>@DavidTriathlete</t>
-  </si>
-  <si>
     <t>Nicolas</t>
   </si>
   <si>
@@ -3271,7 +3367,7 @@
     <t>Science Enthusiast | Exploring the wonders of the natural world.</t>
   </si>
   <si>
-    <t>nicolaswoods@gmail.com</t>
+    <t>nicolaswoods391@gmail.com</t>
   </si>
   <si>
     <t>@NicoSci</t>
@@ -3286,7 +3382,10 @@
     <t>Storyteller | Crafting narratives that connect and inspire.</t>
   </si>
   <si>
-    <t>evelynstone@gmail.com</t>
+    <t>evelynstone836@gmail.com</t>
+  </si>
+  <si>
+    <t>NZ88NygQ</t>
   </si>
   <si>
     <t>@EveTells</t>
@@ -3301,7 +3400,10 @@
     <t>Costume Designer | Bringing characters to life with creativity.</t>
   </si>
   <si>
-    <t>sebastianwest@gmail.com</t>
+    <t>sebastianwest430@gmail.com</t>
+  </si>
+  <si>
+    <t>o@Zx!Gcg</t>
   </si>
   <si>
     <t>@SebCostumes</t>
@@ -3316,7 +3418,10 @@
     <t>Bird Enthusiast | Watching and documenting rare species.</t>
   </si>
   <si>
-    <t>sarahcurtis@gmail.com</t>
+    <t>sarahcurtis664@gmail.com</t>
+  </si>
+  <si>
+    <t>pQfqvZgo</t>
   </si>
   <si>
     <t>@SarahBirds</t>
@@ -3328,7 +3433,10 @@
     <t>Snowboarder | Thriving in the mountains and chasing fresh powder.</t>
   </si>
   <si>
-    <t>nathanjordan@gmail.com</t>
+    <t>nathanjordan744@gmail.com</t>
+  </si>
+  <si>
+    <t>3mHRo8!F</t>
   </si>
   <si>
     <t>@NathanSnow</t>
@@ -3343,7 +3451,10 @@
     <t>Virtual Reality Explorer | Immersing in new dimensions of creativity.</t>
   </si>
   <si>
-    <t>penelopefisher@gmail.com</t>
+    <t>penelopefisher411@gmail.com</t>
+  </si>
+  <si>
+    <t>3m@AF$Ed</t>
   </si>
   <si>
     <t>@PennyExplore</t>
@@ -3358,7 +3469,10 @@
     <t>Wildlife Photographer | Capturing the beauty of animals in their habitat.</t>
   </si>
   <si>
-    <t>dylandaniels@gmail.com</t>
+    <t>dylandaniels591@gmail.com</t>
+  </si>
+  <si>
+    <t>hG9uBfMg</t>
   </si>
   <si>
     <t>@DylanWildlife</t>
@@ -3370,7 +3484,10 @@
     <t>Metalworker | Forging art and function from raw materials.</t>
   </si>
   <si>
-    <t>eleanorhunter@gmail.com</t>
+    <t>eleanorhunter523@gmail.com</t>
+  </si>
+  <si>
+    <t>5puukVgg</t>
   </si>
   <si>
     <t>@EllieMetal</t>
@@ -3385,7 +3502,10 @@
     <t>Drama Coach | Guiding others to shine on stage.</t>
   </si>
   <si>
-    <t>leohoffman@gmail.com</t>
+    <t>leohoffman805@gmail.com</t>
+  </si>
+  <si>
+    <t>vn6nuprx</t>
   </si>
   <si>
     <t>@LeoDrama</t>
@@ -3400,7 +3520,10 @@
     <t>Sustainable Living Advocate | Making eco-friendly choices every day.</t>
   </si>
   <si>
-    <t>ellaholland@gmail.com</t>
+    <t>ellaholland288@gmail.com</t>
+  </si>
+  <si>
+    <t>GvnBVpka</t>
   </si>
   <si>
     <t>@EllaEco</t>
@@ -3412,10 +3535,10 @@
     <t>Adventure Seeker 🌍 | Hiking enthusiast always chasing the next peak.</t>
   </si>
   <si>
-    <t>oliviasmith@gmail.com</t>
-  </si>
-  <si>
-    <t>bzcdqkf2Udv8</t>
+    <t>oliviasmith67556@gmail.com</t>
+  </si>
+  <si>
+    <t>bzcdqkf2</t>
   </si>
   <si>
     <t>@OliviaHikes</t>
@@ -3584,7 +3707,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3702,9 +3825,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -7708,7 +7828,9 @@
       <c r="K81" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="L81" s="9"/>
+      <c r="L81" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M81" s="6" t="s">
         <v>558</v>
       </c>
@@ -7716,21 +7838,23 @@
         <v>559</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q81" s="9"/>
     </row>
     <row r="82">
       <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
+      <c r="B82" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C82" s="8">
         <v>81.0</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>19</v>
@@ -7739,7 +7863,7 @@
         <v>153</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I82" s="6">
         <v>33.0</v>
@@ -7748,23 +7872,27 @@
         <v>33466.0</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="L82" s="9"/>
+        <v>564</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M82" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Q82" s="9"/>
     </row>
     <row r="83">
       <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
+      <c r="B83" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C83" s="8">
         <v>82.0</v>
       </c>
@@ -7772,16 +7900,16 @@
         <v>104</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I83" s="6">
         <v>33.0</v>
@@ -7790,31 +7918,35 @@
         <v>33393.0</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="L83" s="9"/>
+        <v>570</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M83" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Q83" s="9"/>
     </row>
     <row r="84">
       <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
+      <c r="B84" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C84" s="8">
         <v>83.0</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>19</v>
@@ -7823,7 +7955,7 @@
         <v>122</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="I84" s="6">
         <v>32.0</v>
@@ -7832,23 +7964,27 @@
         <v>33768.0</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="L84" s="9"/>
+        <v>577</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M84" s="6" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="Q84" s="9"/>
     </row>
     <row r="85">
       <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
+      <c r="B85" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C85" s="8">
         <v>84.0</v>
       </c>
@@ -7856,7 +7992,7 @@
         <v>423</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>481</v>
@@ -7865,7 +8001,7 @@
         <v>129</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="I85" s="6">
         <v>38.0</v>
@@ -7874,23 +8010,27 @@
         <v>31581.0</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="L85" s="9"/>
+        <v>583</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M85" s="6" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="Q85" s="9"/>
     </row>
     <row r="86">
       <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
+      <c r="B86" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C86" s="8">
         <v>85.0</v>
       </c>
@@ -7898,7 +8038,7 @@
         <v>37</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>19</v>
@@ -7907,7 +8047,7 @@
         <v>39</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="I86" s="6">
         <v>31.0</v>
@@ -7916,23 +8056,27 @@
         <v>34233.0</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="L86" s="9"/>
+        <v>589</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M86" s="6" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="Q86" s="9"/>
     </row>
     <row r="87">
       <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
+      <c r="B87" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C87" s="8">
         <v>86.0</v>
       </c>
@@ -7940,16 +8084,16 @@
         <v>120</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="I87" s="6">
         <v>25.0</v>
@@ -7958,40 +8102,44 @@
         <v>36199.0</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="L87" s="9"/>
+        <v>596</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M87" s="6" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="Q87" s="9"/>
     </row>
     <row r="88">
       <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
+      <c r="B88" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C88" s="8">
         <v>87.0</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="I88" s="6">
         <v>27.0</v>
@@ -8000,28 +8148,32 @@
         <v>35680.0</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="L88" s="9"/>
+        <v>604</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M88" s="6" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="Q88" s="9"/>
     </row>
     <row r="89">
       <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
+      <c r="B89" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C89" s="8">
         <v>88.0</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>307</v>
@@ -8030,10 +8182,10 @@
         <v>481</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="I89" s="6">
         <v>24.0</v>
@@ -8042,23 +8194,27 @@
         <v>36539.0</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="L89" s="9"/>
+        <v>610</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M89" s="6" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="Q89" s="9"/>
     </row>
     <row r="90">
       <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
+      <c r="B90" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C90" s="8">
         <v>89.0</v>
       </c>
@@ -8066,16 +8222,16 @@
         <v>144</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="I90" s="6">
         <v>24.0</v>
@@ -8084,31 +8240,35 @@
         <v>36611.0</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="L90" s="9"/>
+        <v>616</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M90" s="6" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="P90" s="6" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="Q90" s="9"/>
     </row>
     <row r="91">
       <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
+      <c r="B91" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C91" s="8">
         <v>90.0</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>481</v>
@@ -8117,7 +8277,7 @@
         <v>138</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="I91" s="6">
         <v>30.0</v>
@@ -8126,17 +8286,19 @@
         <v>34696.0</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="L91" s="9"/>
+        <v>622</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>623</v>
+      </c>
       <c r="M91" s="6" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="Q91" s="9"/>
     </row>
@@ -8149,7 +8311,7 @@
         <v>91.0</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>328</v>
@@ -8161,7 +8323,7 @@
         <v>399</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="I92" s="6">
         <v>27.0</v>
@@ -8170,19 +8332,19 @@
         <v>35595.0</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="L92" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="Q92" s="9"/>
     </row>
@@ -8195,10 +8357,10 @@
         <v>92.0</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>481</v>
@@ -8207,7 +8369,7 @@
         <v>486</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="I93" s="6">
         <v>20.0</v>
@@ -8216,19 +8378,19 @@
         <v>38112.0</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="L93" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="Q93" s="9"/>
     </row>
@@ -8244,7 +8406,7 @@
         <v>173</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>19</v>
@@ -8253,7 +8415,7 @@
         <v>348</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="I94" s="6">
         <v>24.0</v>
@@ -8262,19 +8424,19 @@
         <v>36809.0</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="L94" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="Q94" s="9"/>
     </row>
@@ -8287,10 +8449,10 @@
         <v>94.0</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>481</v>
@@ -8299,7 +8461,7 @@
         <v>513</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="I95" s="6">
         <v>37.0</v>
@@ -8308,19 +8470,19 @@
         <v>31819.0</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="L95" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="Q95" s="9"/>
     </row>
@@ -8345,7 +8507,7 @@
         <v>287</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="I96" s="6">
         <v>38.0</v>
@@ -8354,19 +8516,19 @@
         <v>31637.0</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="L96" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="Q96" s="9"/>
     </row>
@@ -8382,7 +8544,7 @@
         <v>151</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>481</v>
@@ -8391,7 +8553,7 @@
         <v>46</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="I97" s="6">
         <v>38.0</v>
@@ -8400,19 +8562,19 @@
         <v>31593.0</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="L97" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="Q97" s="9"/>
     </row>
@@ -8428,7 +8590,7 @@
         <v>199</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>19</v>
@@ -8437,7 +8599,7 @@
         <v>122</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="I98" s="6">
         <v>28.0</v>
@@ -8446,19 +8608,19 @@
         <v>35214.0</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="L98" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="Q98" s="9"/>
     </row>
@@ -8471,19 +8633,19 @@
         <v>98.0</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="I99" s="6">
         <v>40.0</v>
@@ -8492,19 +8654,19 @@
         <v>30804.0</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="L99" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="P99" s="6" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="Q99" s="9"/>
     </row>
@@ -8517,10 +8679,10 @@
         <v>99.0</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>19</v>
@@ -8529,7 +8691,7 @@
         <v>486</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="I100" s="6">
         <v>20.0</v>
@@ -8538,19 +8700,19 @@
         <v>38142.0</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="L100" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="P100" s="6" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="Q100" s="9"/>
     </row>
@@ -8563,7 +8725,7 @@
         <v>100.0</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>251</v>
@@ -8575,7 +8737,7 @@
         <v>99</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="I101" s="6">
         <v>24.0</v>
@@ -8584,19 +8746,19 @@
         <v>36737.0</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="L101" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="P101" s="6" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="Q101" s="9"/>
     </row>
@@ -8609,10 +8771,10 @@
         <v>101.0</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>19</v>
@@ -8621,7 +8783,7 @@
         <v>532</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="I102" s="6">
         <v>34.0</v>
@@ -8630,19 +8792,19 @@
         <v>32902.0</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="L102" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="P102" s="6" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="Q102" s="9"/>
     </row>
@@ -8655,10 +8817,10 @@
         <v>102.0</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>481</v>
@@ -8667,7 +8829,7 @@
         <v>348</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="I103" s="6">
         <v>28.0</v>
@@ -8676,19 +8838,19 @@
         <v>35229.0</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="L103" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M103" s="6" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="N103" s="6" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="P103" s="6" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="Q103" s="9"/>
     </row>
@@ -8701,10 +8863,10 @@
         <v>103.0</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>19</v>
@@ -8713,7 +8875,7 @@
         <v>84</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="I104" s="6">
         <v>38.0</v>
@@ -8722,19 +8884,19 @@
         <v>31738.0</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="L104" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="P104" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="Q104" s="9"/>
     </row>
@@ -8747,10 +8909,10 @@
         <v>104.0</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>481</v>
@@ -8759,7 +8921,7 @@
         <v>29</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="I105" s="6">
         <v>22.0</v>
@@ -8768,19 +8930,19 @@
         <v>37380.0</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="L105" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="P105" s="6" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="Q105" s="9"/>
     </row>
@@ -8793,10 +8955,10 @@
         <v>105.0</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>19</v>
@@ -8805,7 +8967,7 @@
         <v>168</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="I106" s="6">
         <v>35.0</v>
@@ -8814,19 +8976,19 @@
         <v>32736.0</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="L106" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="P106" s="6" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="Q106" s="9"/>
     </row>
@@ -8839,7 +9001,7 @@
         <v>106.0</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>98</v>
@@ -8848,10 +9010,10 @@
         <v>481</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="I107" s="6">
         <v>29.0</v>
@@ -8860,19 +9022,19 @@
         <v>34730.0</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="L107" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="P107" s="6" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="Q107" s="9"/>
     </row>
@@ -8885,7 +9047,7 @@
         <v>107.0</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>174</v>
@@ -8894,10 +9056,10 @@
         <v>19</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="I108" s="6">
         <v>20.0</v>
@@ -8906,19 +9068,19 @@
         <v>38186.0</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="L108" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="P108" s="6" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="Q108" s="9"/>
     </row>
@@ -8931,10 +9093,10 @@
         <v>108.0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>481</v>
@@ -8943,7 +9105,7 @@
         <v>532</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="I109" s="6">
         <v>26.0</v>
@@ -8952,19 +9114,19 @@
         <v>35820.0</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="L109" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="P109" s="6" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="Q109" s="9"/>
     </row>
@@ -8977,10 +9139,10 @@
         <v>109.0</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>19</v>
@@ -8989,7 +9151,7 @@
         <v>99</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="I110" s="6">
         <v>40.0</v>
@@ -8998,19 +9160,19 @@
         <v>30771.0</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="L110" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="P110" s="6" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="Q110" s="9"/>
     </row>
@@ -9023,10 +9185,10 @@
         <v>110.0</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>481</v>
@@ -9035,7 +9197,7 @@
         <v>287</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="I111" s="6">
         <v>28.0</v>
@@ -9044,25 +9206,27 @@
         <v>35150.0</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="L111" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="P111" s="6" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="Q111" s="9"/>
     </row>
     <row r="112">
       <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
+      <c r="B112" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C112" s="8">
         <v>111.0</v>
       </c>
@@ -9079,7 +9243,7 @@
         <v>486</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="I112" s="6">
         <v>30.0</v>
@@ -9088,31 +9252,35 @@
         <v>34575.0</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="L112" s="9"/>
+        <v>752</v>
+      </c>
+      <c r="L112" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M112" s="6" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="P112" s="6" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="Q112" s="9"/>
     </row>
     <row r="113">
       <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
+      <c r="B113" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C113" s="8">
         <v>112.0</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>481</v>
@@ -9121,7 +9289,7 @@
         <v>138</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="I113" s="6">
         <v>28.0</v>
@@ -9130,40 +9298,44 @@
         <v>35167.0</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="L113" s="9"/>
+        <v>758</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M113" s="6" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="P113" s="6" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="Q113" s="9"/>
     </row>
     <row r="114">
       <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
+      <c r="B114" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C114" s="8">
         <v>113.0</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="I114" s="6">
         <v>30.0</v>
@@ -9172,40 +9344,44 @@
         <v>34641.0</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="L114" s="9"/>
+        <v>765</v>
+      </c>
+      <c r="L114" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M114" s="6" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="P114" s="6" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="Q114" s="9"/>
     </row>
     <row r="115">
       <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
+      <c r="B115" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C115" s="8">
         <v>114.0</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="I115" s="6">
         <v>30.0</v>
@@ -9214,40 +9390,44 @@
         <v>34333.0</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="L115" s="9"/>
+        <v>772</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M115" s="6" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="P115" s="6" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="Q115" s="9"/>
     </row>
     <row r="116">
       <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
+      <c r="B116" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C116" s="8">
         <v>115.0</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="I116" s="6">
         <v>36.0</v>
@@ -9256,31 +9436,35 @@
         <v>32412.0</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="L116" s="9"/>
+        <v>779</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M116" s="6" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="N116" s="6" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="P116" s="6" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="Q116" s="9"/>
     </row>
     <row r="117">
       <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
+      <c r="B117" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C117" s="8">
         <v>116.0</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>481</v>
@@ -9289,7 +9473,7 @@
         <v>342</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="I117" s="6">
         <v>30.0</v>
@@ -9298,31 +9482,35 @@
         <v>34336.0</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="L117" s="9"/>
+        <v>785</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M117" s="6" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
       <c r="N117" s="6" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="P117" s="6" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="Q117" s="9"/>
     </row>
     <row r="118">
       <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
+      <c r="B118" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C118" s="8">
         <v>117.0</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>19</v>
@@ -9331,7 +9519,7 @@
         <v>201</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="I118" s="6">
         <v>28.0</v>
@@ -9340,31 +9528,35 @@
         <v>35330.0</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="L118" s="9"/>
+        <v>792</v>
+      </c>
+      <c r="L118" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M118" s="6" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="N118" s="6" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="P118" s="6" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
       <c r="Q118" s="9"/>
     </row>
     <row r="119">
       <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
+      <c r="B119" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C119" s="8">
         <v>118.0</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>481</v>
@@ -9373,7 +9565,7 @@
         <v>106</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="I119" s="6">
         <v>29.0</v>
@@ -9382,31 +9574,35 @@
         <v>34850.0</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="L119" s="9"/>
+        <v>799</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M119" s="6" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="N119" s="6" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="P119" s="6" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="Q119" s="9"/>
     </row>
     <row r="120">
       <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
+      <c r="B120" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C120" s="8">
         <v>119.0</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>19</v>
@@ -9415,7 +9611,7 @@
         <v>342</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="I120" s="6">
         <v>31.0</v>
@@ -9424,23 +9620,27 @@
         <v>34149.0</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="L120" s="9"/>
+        <v>805</v>
+      </c>
+      <c r="L120" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M120" s="6" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
       <c r="P120" s="6" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
       <c r="Q120" s="9"/>
     </row>
     <row r="121">
       <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
+      <c r="B121" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="C121" s="8">
         <v>120.0</v>
       </c>
@@ -9454,10 +9654,10 @@
         <v>481</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="I121" s="6">
         <v>36.0</v>
@@ -9466,16 +9666,19 @@
         <v>32160.0</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>797</v>
+        <v>810</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="M121" s="39" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="N121" s="6" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="P121" s="6" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
       <c r="Q121" s="9"/>
     </row>
@@ -9486,19 +9689,19 @@
         <v>121.0</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>801</v>
+        <v>815</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="I122" s="6">
         <v>38.0</v>
@@ -9507,19 +9710,19 @@
         <v>31600.0</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="L122" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="L122" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M122" s="6" t="s">
         <v>95</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="P122" s="6" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="Q122" s="9"/>
     </row>
@@ -9530,19 +9733,19 @@
         <v>122.0</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>807</v>
+        <v>821</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="I123" s="6">
         <v>22.0</v>
@@ -9551,19 +9754,19 @@
         <v>37532.0</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="L123" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="L123" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M123" s="6" t="s">
-        <v>102</v>
+        <v>824</v>
       </c>
       <c r="N123" s="6" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
       <c r="P123" s="6" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
       <c r="Q123" s="9"/>
     </row>
@@ -9574,19 +9777,19 @@
         <v>123.0</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="I124" s="6">
         <v>36.0</v>
@@ -9595,19 +9798,19 @@
         <v>32175.0</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="L124" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="L124" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M124" s="12" t="s">
         <v>109</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="P124" s="6" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="Q124" s="9"/>
     </row>
@@ -9618,19 +9821,19 @@
         <v>124.0</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>818</v>
+        <v>833</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>819</v>
+        <v>834</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>820</v>
+        <v>835</v>
       </c>
       <c r="I125" s="6">
         <v>34.0</v>
@@ -9639,19 +9842,19 @@
         <v>33108.0</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="L125" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="L125" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M125" s="6" t="s">
         <v>117</v>
       </c>
       <c r="N125" s="6" t="s">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="P125" s="6" t="s">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="Q125" s="9"/>
     </row>
@@ -9662,19 +9865,19 @@
         <v>125.0</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>824</v>
+        <v>839</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>826</v>
+        <v>841</v>
       </c>
       <c r="I126" s="6">
         <v>27.0</v>
@@ -9683,19 +9886,19 @@
         <v>35705.0</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="L126" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="L126" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M126" s="6" t="s">
         <v>125</v>
       </c>
       <c r="N126" s="6" t="s">
-        <v>828</v>
+        <v>843</v>
       </c>
       <c r="P126" s="6" t="s">
-        <v>828</v>
+        <v>843</v>
       </c>
       <c r="Q126" s="9"/>
     </row>
@@ -9706,19 +9909,19 @@
         <v>126.0</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>829</v>
+        <v>844</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>832</v>
+        <v>847</v>
       </c>
       <c r="I127" s="6">
         <v>31.0</v>
@@ -9727,19 +9930,19 @@
         <v>34111.0</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="L127" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="L127" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M127" s="6" t="s">
         <v>132</v>
       </c>
       <c r="N127" s="6" t="s">
-        <v>834</v>
+        <v>849</v>
       </c>
       <c r="P127" s="6" t="s">
-        <v>834</v>
+        <v>849</v>
       </c>
       <c r="Q127" s="9"/>
     </row>
@@ -9753,16 +9956,16 @@
         <v>258</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>835</v>
+        <v>850</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="I128" s="6">
         <v>37.0</v>
@@ -9771,19 +9974,19 @@
         <v>31897.0</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="L128" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="L128" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M128" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N128" s="6" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="P128" s="6" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="Q128" s="9"/>
     </row>
@@ -9794,19 +9997,19 @@
         <v>128.0</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>841</v>
+        <v>856</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="I129" s="6">
         <v>34.0</v>
@@ -9815,19 +10018,19 @@
         <v>33081.0</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>844</v>
-      </c>
-      <c r="L129" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="L129" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M129" s="6" t="s">
         <v>149</v>
       </c>
       <c r="N129" s="6" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="P129" s="6" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="Q129" s="9"/>
     </row>
@@ -9838,19 +10041,19 @@
         <v>129.0</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>846</v>
+        <v>861</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="I130" s="6">
         <v>35.0</v>
@@ -9859,19 +10062,19 @@
         <v>32570.0</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="L130" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="L130" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M130" s="6" t="s">
         <v>156</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="P130" s="6" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="Q130" s="9"/>
     </row>
@@ -9882,19 +10085,19 @@
         <v>130.0</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="I131" s="6">
         <v>32.0</v>
@@ -9903,19 +10106,17 @@
         <v>33749.0</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="L131" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>871</v>
+      </c>
+      <c r="L131" s="39"/>
       <c r="M131" s="6" t="s">
         <v>163</v>
       </c>
       <c r="N131" s="6" t="s">
-        <v>857</v>
+        <v>872</v>
       </c>
       <c r="P131" s="6" t="s">
-        <v>857</v>
+        <v>872</v>
       </c>
       <c r="Q131" s="9"/>
     </row>
@@ -9926,7 +10127,7 @@
         <v>131.0</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>858</v>
+        <v>873</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>121</v>
@@ -9935,10 +10136,10 @@
         <v>19</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="I132" s="6">
         <v>24.0</v>
@@ -9947,19 +10148,17 @@
         <v>36650.0</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>861</v>
-      </c>
-      <c r="L132" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>876</v>
+      </c>
+      <c r="L132" s="39"/>
       <c r="M132" s="6" t="s">
         <v>171</v>
       </c>
       <c r="N132" s="6" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="P132" s="6" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="Q132" s="9"/>
     </row>
@@ -9970,19 +10169,19 @@
         <v>132.0</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>866</v>
+        <v>881</v>
       </c>
       <c r="I133" s="6">
         <v>37.0</v>
@@ -9991,19 +10190,19 @@
         <v>31965.0</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="L133" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="L133" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M133" s="6" t="s">
         <v>177</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="P133" s="6" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="Q133" s="9"/>
     </row>
@@ -10014,19 +10213,19 @@
         <v>133.0</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>869</v>
+        <v>884</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="F134" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="I134" s="6">
         <v>33.0</v>
@@ -10035,19 +10234,19 @@
         <v>33516.0</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="L134" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="L134" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M134" s="6" t="s">
         <v>184</v>
       </c>
       <c r="N134" s="6" t="s">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="P134" s="6" t="s">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="Q134" s="9"/>
     </row>
@@ -10067,10 +10266,10 @@
         <v>481</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="I135" s="6">
         <v>27.0</v>
@@ -10079,19 +10278,19 @@
         <v>35519.0</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="L135" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="L135" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M135" s="6" t="s">
         <v>190</v>
       </c>
       <c r="N135" s="6" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="P135" s="6" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="Q135" s="9"/>
     </row>
@@ -10102,19 +10301,19 @@
         <v>135.0</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>879</v>
+        <v>894</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>880</v>
+        <v>895</v>
       </c>
       <c r="F136" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>881</v>
+        <v>896</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="I136" s="6">
         <v>40.0</v>
@@ -10123,19 +10322,19 @@
         <v>30913.0</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>883</v>
-      </c>
-      <c r="L136" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="L136" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M136" s="6" t="s">
         <v>197</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="P136" s="6" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="Q136" s="9"/>
     </row>
@@ -10146,19 +10345,19 @@
         <v>136.0</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>885</v>
+        <v>900</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>886</v>
+        <v>901</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>887</v>
+        <v>902</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>888</v>
+        <v>903</v>
       </c>
       <c r="I137" s="6">
         <v>27.0</v>
@@ -10167,17 +10366,19 @@
         <v>35695.0</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="L137" s="6"/>
+        <v>904</v>
+      </c>
+      <c r="L137" s="39" t="s">
+        <v>23</v>
+      </c>
       <c r="M137" s="6" t="s">
         <v>204</v>
       </c>
       <c r="N137" s="6" t="s">
-        <v>890</v>
+        <v>905</v>
       </c>
       <c r="P137" s="6" t="s">
-        <v>890</v>
+        <v>905</v>
       </c>
       <c r="Q137" s="9"/>
     </row>
@@ -10188,19 +10389,19 @@
         <v>137.0</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>891</v>
+        <v>906</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>892</v>
+        <v>907</v>
       </c>
       <c r="F138" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>893</v>
+        <v>908</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>894</v>
+        <v>909</v>
       </c>
       <c r="I138" s="6">
         <v>22.0</v>
@@ -10209,17 +10410,19 @@
         <v>37426.0</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="L138" s="40"/>
+        <v>910</v>
+      </c>
+      <c r="L138" s="39" t="s">
+        <v>23</v>
+      </c>
       <c r="M138" s="6" t="s">
         <v>211</v>
       </c>
       <c r="N138" s="6" t="s">
-        <v>896</v>
+        <v>911</v>
       </c>
       <c r="P138" s="6" t="s">
-        <v>896</v>
+        <v>911</v>
       </c>
       <c r="Q138" s="9"/>
     </row>
@@ -10230,19 +10433,19 @@
         <v>138.0</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>897</v>
+        <v>912</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>898</v>
+        <v>913</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>899</v>
+        <v>914</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>900</v>
+        <v>915</v>
       </c>
       <c r="I139" s="6">
         <v>34.0</v>
@@ -10251,16 +10454,19 @@
         <v>33130.0</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>901</v>
+        <v>916</v>
+      </c>
+      <c r="L139" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M139" s="6" t="s">
         <v>217</v>
       </c>
       <c r="N139" s="6" t="s">
-        <v>902</v>
+        <v>917</v>
       </c>
       <c r="P139" s="6" t="s">
-        <v>902</v>
+        <v>917</v>
       </c>
       <c r="Q139" s="9"/>
     </row>
@@ -10271,19 +10477,19 @@
         <v>139.0</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>903</v>
+        <v>918</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>904</v>
+        <v>919</v>
       </c>
       <c r="F140" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>905</v>
+        <v>920</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>906</v>
+        <v>921</v>
       </c>
       <c r="I140" s="6">
         <v>38.0</v>
@@ -10292,16 +10498,19 @@
         <v>31527.0</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>907</v>
+        <v>922</v>
+      </c>
+      <c r="L140" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M140" s="6" t="s">
         <v>226</v>
       </c>
       <c r="N140" s="6" t="s">
-        <v>908</v>
+        <v>923</v>
       </c>
       <c r="P140" s="6" t="s">
-        <v>908</v>
+        <v>923</v>
       </c>
       <c r="Q140" s="9"/>
     </row>
@@ -10312,7 +10521,7 @@
         <v>140.0</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>909</v>
+        <v>924</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>222</v>
@@ -10321,10 +10530,10 @@
         <v>481</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>910</v>
+        <v>925</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>911</v>
+        <v>926</v>
       </c>
       <c r="I141" s="6">
         <v>40.0</v>
@@ -10333,16 +10542,19 @@
         <v>30703.0</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>912</v>
+        <v>927</v>
+      </c>
+      <c r="L141" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M141" s="6" t="s">
         <v>234</v>
       </c>
       <c r="N141" s="6" t="s">
-        <v>913</v>
+        <v>928</v>
       </c>
       <c r="P141" s="6" t="s">
-        <v>913</v>
+        <v>928</v>
       </c>
       <c r="Q141" s="9"/>
     </row>
@@ -10356,16 +10568,16 @@
         <v>159</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>914</v>
+        <v>929</v>
       </c>
       <c r="F142" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>915</v>
+        <v>930</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>916</v>
+        <v>931</v>
       </c>
       <c r="I142" s="6">
         <v>34.0</v>
@@ -10374,16 +10586,19 @@
         <v>33010.0</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>917</v>
+        <v>932</v>
+      </c>
+      <c r="L142" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M142" s="6" t="s">
         <v>242</v>
       </c>
       <c r="N142" s="6" t="s">
-        <v>918</v>
+        <v>933</v>
       </c>
       <c r="P142" s="6" t="s">
-        <v>918</v>
+        <v>933</v>
       </c>
       <c r="Q142" s="9"/>
     </row>
@@ -10397,16 +10612,16 @@
         <v>136</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>919</v>
+        <v>934</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>921</v>
+        <v>936</v>
       </c>
       <c r="I143" s="6">
         <v>28.0</v>
@@ -10415,16 +10630,19 @@
         <v>35224.0</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>922</v>
+        <v>937</v>
+      </c>
+      <c r="L143" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M143" s="6" t="s">
         <v>248</v>
       </c>
       <c r="N143" s="6" t="s">
-        <v>923</v>
+        <v>938</v>
       </c>
       <c r="P143" s="6" t="s">
-        <v>923</v>
+        <v>938</v>
       </c>
       <c r="Q143" s="9"/>
     </row>
@@ -10435,19 +10653,19 @@
         <v>143.0</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>924</v>
+        <v>939</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>925</v>
+        <v>940</v>
       </c>
       <c r="F144" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>926</v>
+        <v>941</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>927</v>
+        <v>942</v>
       </c>
       <c r="I144" s="6">
         <v>37.0</v>
@@ -10456,16 +10674,19 @@
         <v>31802.0</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>928</v>
+        <v>943</v>
+      </c>
+      <c r="L144" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M144" s="6" t="s">
         <v>255</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>929</v>
+        <v>944</v>
       </c>
       <c r="P144" s="6" t="s">
-        <v>929</v>
+        <v>944</v>
       </c>
       <c r="Q144" s="9"/>
     </row>
@@ -10476,19 +10697,19 @@
         <v>144.0</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>931</v>
+        <v>946</v>
       </c>
       <c r="F145" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>932</v>
+        <v>947</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>933</v>
+        <v>948</v>
       </c>
       <c r="I145" s="6">
         <v>24.0</v>
@@ -10497,16 +10718,19 @@
         <v>36756.0</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>934</v>
+        <v>949</v>
+      </c>
+      <c r="L145" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M145" s="6" t="s">
         <v>262</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>935</v>
+        <v>950</v>
       </c>
       <c r="P145" s="6" t="s">
-        <v>935</v>
+        <v>950</v>
       </c>
       <c r="Q145" s="9"/>
     </row>
@@ -10520,16 +10744,16 @@
         <v>17</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>936</v>
+        <v>951</v>
       </c>
       <c r="F146" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>937</v>
+        <v>952</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>938</v>
+        <v>953</v>
       </c>
       <c r="I146" s="6">
         <v>38.0</v>
@@ -10538,16 +10762,19 @@
         <v>31461.0</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>939</v>
+        <v>954</v>
+      </c>
+      <c r="L146" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M146" s="6" t="s">
         <v>268</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>940</v>
+        <v>955</v>
       </c>
       <c r="P146" s="6" t="s">
-        <v>940</v>
+        <v>955</v>
       </c>
       <c r="Q146" s="9"/>
     </row>
@@ -10558,19 +10785,19 @@
         <v>146.0</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>941</v>
+        <v>956</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>942</v>
+        <v>957</v>
       </c>
       <c r="F147" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>943</v>
+        <v>958</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>944</v>
+        <v>959</v>
       </c>
       <c r="I147" s="6">
         <v>30.0</v>
@@ -10579,16 +10806,19 @@
         <v>34359.0</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>945</v>
+        <v>960</v>
+      </c>
+      <c r="L147" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M147" s="6" t="s">
         <v>275</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>946</v>
+        <v>961</v>
       </c>
       <c r="P147" s="6" t="s">
-        <v>946</v>
+        <v>961</v>
       </c>
       <c r="Q147" s="9"/>
     </row>
@@ -10599,19 +10829,19 @@
         <v>147.0</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>948</v>
+        <v>963</v>
       </c>
       <c r="F148" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>949</v>
+        <v>964</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>950</v>
+        <v>965</v>
       </c>
       <c r="I148" s="6">
         <v>23.0</v>
@@ -10620,16 +10850,19 @@
         <v>37030.0</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>951</v>
+        <v>966</v>
+      </c>
+      <c r="L148" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M148" s="6" t="s">
         <v>282</v>
       </c>
       <c r="N148" s="6" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="P148" s="6" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="Q148" s="9"/>
     </row>
@@ -10640,19 +10873,19 @@
         <v>148.0</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>954</v>
+        <v>969</v>
       </c>
       <c r="F149" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>956</v>
+        <v>971</v>
       </c>
       <c r="I149" s="6">
         <v>26.0</v>
@@ -10661,16 +10894,19 @@
         <v>35909.0</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>957</v>
+        <v>972</v>
+      </c>
+      <c r="L149" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M149" s="6" t="s">
         <v>290</v>
       </c>
       <c r="N149" s="6" t="s">
-        <v>958</v>
+        <v>973</v>
       </c>
       <c r="P149" s="6" t="s">
-        <v>958</v>
+        <v>973</v>
       </c>
       <c r="Q149" s="9"/>
     </row>
@@ -10681,19 +10917,19 @@
         <v>149.0</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>959</v>
+        <v>974</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="F150" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>961</v>
+        <v>976</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>962</v>
+        <v>977</v>
       </c>
       <c r="I150" s="6">
         <v>29.0</v>
@@ -10702,16 +10938,19 @@
         <v>34947.0</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>963</v>
+        <v>978</v>
+      </c>
+      <c r="L150" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M150" s="6" t="s">
         <v>297</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>964</v>
+        <v>979</v>
       </c>
       <c r="P150" s="6" t="s">
-        <v>964</v>
+        <v>979</v>
       </c>
       <c r="Q150" s="9"/>
     </row>
@@ -10722,19 +10961,19 @@
         <v>150.0</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>966</v>
+        <v>981</v>
       </c>
       <c r="F151" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>967</v>
+        <v>982</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>968</v>
+        <v>983</v>
       </c>
       <c r="I151" s="6">
         <v>28.0</v>
@@ -10743,16 +10982,19 @@
         <v>35113.0</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>969</v>
+        <v>984</v>
+      </c>
+      <c r="L151" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M151" s="6" t="s">
         <v>304</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>970</v>
+        <v>985</v>
       </c>
       <c r="P151" s="6" t="s">
-        <v>970</v>
+        <v>985</v>
       </c>
       <c r="Q151" s="9"/>
     </row>
@@ -10763,7 +11005,7 @@
         <v>151.0</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>971</v>
+        <v>986</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>271</v>
@@ -10772,10 +11014,10 @@
         <v>19</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>972</v>
+        <v>987</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>973</v>
+        <v>988</v>
       </c>
       <c r="I152" s="6">
         <v>25.0</v>
@@ -10784,16 +11026,19 @@
         <v>36326.0</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>974</v>
+        <v>989</v>
+      </c>
+      <c r="L152" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M152" s="6" t="s">
         <v>310</v>
       </c>
       <c r="N152" s="6" t="s">
-        <v>975</v>
+        <v>990</v>
       </c>
       <c r="P152" s="6" t="s">
-        <v>975</v>
+        <v>990</v>
       </c>
       <c r="Q152" s="9"/>
     </row>
@@ -10804,19 +11049,19 @@
         <v>152.0</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>976</v>
+        <v>991</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>977</v>
+        <v>992</v>
       </c>
       <c r="F153" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>978</v>
+        <v>993</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>979</v>
+        <v>994</v>
       </c>
       <c r="I153" s="6">
         <v>26.0</v>
@@ -10825,16 +11070,19 @@
         <v>35803.0</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>980</v>
+        <v>995</v>
+      </c>
+      <c r="L153" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M153" s="6" t="s">
         <v>318</v>
       </c>
       <c r="N153" s="6" t="s">
-        <v>981</v>
+        <v>996</v>
       </c>
       <c r="P153" s="6" t="s">
-        <v>981</v>
+        <v>996</v>
       </c>
       <c r="Q153" s="9"/>
     </row>
@@ -10848,16 +11096,16 @@
         <v>354</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>982</v>
+        <v>997</v>
       </c>
       <c r="F154" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>983</v>
+        <v>998</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>984</v>
+        <v>999</v>
       </c>
       <c r="I154" s="6">
         <v>28.0</v>
@@ -10866,16 +11114,19 @@
         <v>35413.0</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>985</v>
+        <v>1000</v>
+      </c>
+      <c r="L154" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M154" s="6" t="s">
-        <v>324</v>
+        <v>1001</v>
       </c>
       <c r="N154" s="6" t="s">
-        <v>986</v>
+        <v>1002</v>
       </c>
       <c r="P154" s="6" t="s">
-        <v>986</v>
+        <v>1002</v>
       </c>
       <c r="Q154" s="9"/>
     </row>
@@ -10886,19 +11137,19 @@
         <v>154.0</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>987</v>
+        <v>1003</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>988</v>
+        <v>1004</v>
       </c>
       <c r="F155" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>989</v>
+        <v>1005</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>990</v>
+        <v>1006</v>
       </c>
       <c r="I155" s="6">
         <v>27.0</v>
@@ -10907,16 +11158,19 @@
         <v>35631.0</v>
       </c>
       <c r="K155" s="6" t="s">
-        <v>991</v>
+        <v>1007</v>
+      </c>
+      <c r="L155" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M155" s="6" t="s">
-        <v>516</v>
+        <v>1008</v>
       </c>
       <c r="N155" s="6" t="s">
-        <v>992</v>
+        <v>1009</v>
       </c>
       <c r="P155" s="6" t="s">
-        <v>992</v>
+        <v>1009</v>
       </c>
       <c r="Q155" s="9"/>
     </row>
@@ -10927,19 +11181,19 @@
         <v>155.0</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>993</v>
+        <v>1010</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>994</v>
+        <v>1011</v>
       </c>
       <c r="F156" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="I156" s="6">
         <v>38.0</v>
@@ -10948,16 +11202,19 @@
         <v>31441.0</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>997</v>
+        <v>1014</v>
+      </c>
+      <c r="L156" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M156" s="6" t="s">
-        <v>522</v>
+        <v>1015</v>
       </c>
       <c r="N156" s="6" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="P156" s="6" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="Q156" s="9"/>
     </row>
@@ -10968,19 +11225,19 @@
         <v>156.0</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>1000</v>
+        <v>1018</v>
       </c>
       <c r="F157" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="I157" s="6">
         <v>30.0</v>
@@ -10989,16 +11246,19 @@
         <v>34412.0</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>1003</v>
+        <v>1021</v>
+      </c>
+      <c r="L157" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M157" s="6" t="s">
-        <v>528</v>
+        <v>1022</v>
       </c>
       <c r="N157" s="6" t="s">
-        <v>1004</v>
+        <v>1023</v>
       </c>
       <c r="P157" s="6" t="s">
-        <v>1004</v>
+        <v>1023</v>
       </c>
       <c r="Q157" s="9"/>
     </row>
@@ -11012,16 +11272,16 @@
         <v>340</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="F158" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>1006</v>
+        <v>1025</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="I158" s="6">
         <v>22.0</v>
@@ -11030,16 +11290,19 @@
         <v>37468.0</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>1008</v>
+        <v>1027</v>
+      </c>
+      <c r="L158" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M158" s="6" t="s">
-        <v>535</v>
+        <v>1028</v>
       </c>
       <c r="N158" s="6" t="s">
-        <v>1009</v>
+        <v>1029</v>
       </c>
       <c r="P158" s="6" t="s">
-        <v>1009</v>
+        <v>1029</v>
       </c>
       <c r="Q158" s="9"/>
     </row>
@@ -11050,19 +11313,19 @@
         <v>158.0</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>1011</v>
+        <v>1031</v>
       </c>
       <c r="F159" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>1012</v>
+        <v>1032</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>1013</v>
+        <v>1033</v>
       </c>
       <c r="I159" s="6">
         <v>40.0</v>
@@ -11071,16 +11334,19 @@
         <v>30871.0</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>1014</v>
+        <v>1034</v>
+      </c>
+      <c r="L159" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M159" s="6" t="s">
-        <v>542</v>
+        <v>1035</v>
       </c>
       <c r="N159" s="6" t="s">
-        <v>1015</v>
+        <v>1036</v>
       </c>
       <c r="P159" s="6" t="s">
-        <v>1015</v>
+        <v>1036</v>
       </c>
       <c r="Q159" s="9"/>
     </row>
@@ -11091,7 +11357,7 @@
         <v>159.0</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>1016</v>
+        <v>1037</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>104</v>
@@ -11100,10 +11366,10 @@
         <v>19</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>1017</v>
+        <v>1038</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>1018</v>
+        <v>1039</v>
       </c>
       <c r="I160" s="6">
         <v>31.0</v>
@@ -11112,16 +11378,19 @@
         <v>33977.0</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>1019</v>
+        <v>1040</v>
+      </c>
+      <c r="L160" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M160" s="6" t="s">
-        <v>547</v>
+        <v>1041</v>
       </c>
       <c r="N160" s="6" t="s">
-        <v>1020</v>
+        <v>1042</v>
       </c>
       <c r="P160" s="6" t="s">
-        <v>1020</v>
+        <v>1042</v>
       </c>
       <c r="Q160" s="9"/>
     </row>
@@ -11135,16 +11404,16 @@
         <v>221</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>1021</v>
+        <v>1043</v>
       </c>
       <c r="F161" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>1022</v>
+        <v>1044</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>1023</v>
+        <v>1045</v>
       </c>
       <c r="I161" s="6">
         <v>25.0</v>
@@ -11153,16 +11422,19 @@
         <v>36206.0</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>1024</v>
+        <v>1046</v>
+      </c>
+      <c r="L161" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M161" s="6" t="s">
-        <v>552</v>
+        <v>1047</v>
       </c>
       <c r="N161" s="6" t="s">
-        <v>1025</v>
+        <v>1048</v>
       </c>
       <c r="P161" s="6" t="s">
-        <v>1025</v>
+        <v>1048</v>
       </c>
       <c r="Q161" s="9"/>
     </row>
@@ -11173,19 +11445,19 @@
         <v>161.0</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>1026</v>
+        <v>1049</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>1027</v>
+        <v>1050</v>
       </c>
       <c r="F162" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>1028</v>
+        <v>1051</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>1029</v>
+        <v>1052</v>
       </c>
       <c r="I162" s="6">
         <v>22.0</v>
@@ -11194,16 +11466,19 @@
         <v>37339.0</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>1030</v>
+        <v>1053</v>
+      </c>
+      <c r="L162" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M162" s="6" t="s">
-        <v>558</v>
+        <v>1054</v>
       </c>
       <c r="N162" s="6" t="s">
-        <v>1031</v>
+        <v>1055</v>
       </c>
       <c r="P162" s="6" t="s">
-        <v>1031</v>
+        <v>1055</v>
       </c>
       <c r="Q162" s="9"/>
     </row>
@@ -11217,16 +11492,16 @@
         <v>250</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>1032</v>
+        <v>1056</v>
       </c>
       <c r="F163" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>1033</v>
+        <v>1057</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>1034</v>
+        <v>1058</v>
       </c>
       <c r="I163" s="6">
         <v>26.0</v>
@@ -11235,16 +11510,19 @@
         <v>35895.0</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>1035</v>
+        <v>1059</v>
+      </c>
+      <c r="L163" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M163" s="6" t="s">
-        <v>564</v>
+        <v>1060</v>
       </c>
       <c r="N163" s="6" t="s">
-        <v>1036</v>
+        <v>1061</v>
       </c>
       <c r="P163" s="6" t="s">
-        <v>1036</v>
+        <v>1061</v>
       </c>
       <c r="Q163" s="9"/>
     </row>
@@ -11255,19 +11533,19 @@
         <v>163.0</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>1037</v>
+        <v>1062</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>1038</v>
+        <v>1063</v>
       </c>
       <c r="F164" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>1039</v>
+        <v>1064</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>1040</v>
+        <v>1065</v>
       </c>
       <c r="I164" s="6">
         <v>37.0</v>
@@ -11276,16 +11554,19 @@
         <v>31938.0</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>1041</v>
+        <v>1066</v>
+      </c>
+      <c r="L164" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M164" s="6" t="s">
-        <v>570</v>
+        <v>1067</v>
       </c>
       <c r="N164" s="6" t="s">
-        <v>1042</v>
+        <v>1068</v>
       </c>
       <c r="P164" s="6" t="s">
-        <v>1042</v>
+        <v>1068</v>
       </c>
       <c r="Q164" s="9"/>
     </row>
@@ -11296,19 +11577,19 @@
         <v>164.0</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>1043</v>
+        <v>1069</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>1044</v>
+        <v>1070</v>
       </c>
       <c r="F165" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>1045</v>
+        <v>1071</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>1046</v>
+        <v>1072</v>
       </c>
       <c r="I165" s="6">
         <v>26.0</v>
@@ -11317,16 +11598,19 @@
         <v>35816.0</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>1047</v>
+        <v>1073</v>
+      </c>
+      <c r="L165" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M165" s="6" t="s">
-        <v>576</v>
+        <v>1074</v>
       </c>
       <c r="N165" s="6" t="s">
-        <v>1048</v>
+        <v>1075</v>
       </c>
       <c r="P165" s="6" t="s">
-        <v>1048</v>
+        <v>1075</v>
       </c>
       <c r="Q165" s="9"/>
     </row>
@@ -11337,7 +11621,7 @@
         <v>165.0</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>1049</v>
+        <v>1076</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>347</v>
@@ -11346,10 +11630,10 @@
         <v>19</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>1050</v>
+        <v>1077</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>1051</v>
+        <v>1078</v>
       </c>
       <c r="I166" s="6">
         <v>27.0</v>
@@ -11358,16 +11642,19 @@
         <v>35663.0</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>1052</v>
+        <v>1079</v>
+      </c>
+      <c r="L166" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M166" s="6" t="s">
-        <v>581</v>
+        <v>1080</v>
       </c>
       <c r="N166" s="6" t="s">
-        <v>1053</v>
+        <v>1081</v>
       </c>
       <c r="P166" s="6" t="s">
-        <v>1053</v>
+        <v>1081</v>
       </c>
       <c r="Q166" s="9"/>
     </row>
@@ -11378,19 +11665,19 @@
         <v>166.0</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>1054</v>
+        <v>1082</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>1055</v>
+        <v>1083</v>
       </c>
       <c r="F167" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>1056</v>
+        <v>1084</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>1057</v>
+        <v>1085</v>
       </c>
       <c r="I167" s="6">
         <v>31.0</v>
@@ -11399,16 +11686,19 @@
         <v>33987.0</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>1058</v>
+        <v>1086</v>
+      </c>
+      <c r="L167" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M167" s="6" t="s">
-        <v>586</v>
+        <v>1087</v>
       </c>
       <c r="N167" s="6" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="P167" s="6" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="Q167" s="9"/>
     </row>
@@ -11419,19 +11709,19 @@
         <v>167.0</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>1060</v>
+        <v>1089</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>1061</v>
+        <v>1090</v>
       </c>
       <c r="F168" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>1062</v>
+        <v>1091</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>1063</v>
+        <v>1092</v>
       </c>
       <c r="I168" s="6">
         <v>36.0</v>
@@ -11440,16 +11730,19 @@
         <v>32402.0</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>1064</v>
+        <v>1093</v>
+      </c>
+      <c r="L168" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M168" s="6" t="s">
-        <v>592</v>
+        <v>1094</v>
       </c>
       <c r="N168" s="6" t="s">
-        <v>1065</v>
+        <v>1095</v>
       </c>
       <c r="P168" s="6" t="s">
-        <v>1065</v>
+        <v>1095</v>
       </c>
       <c r="Q168" s="9"/>
     </row>
@@ -11460,78 +11753,81 @@
         <v>168.0</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>51</v>
+        <v>1096</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F169" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F169" s="34" t="s">
         <v>481</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>1067</v>
+        <v>1098</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>1068</v>
+        <v>1099</v>
       </c>
       <c r="I169" s="6">
-        <v>27.0</v>
+        <v>36.0</v>
       </c>
       <c r="J169" s="7">
-        <v>35450.0</v>
+        <v>32463.0</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>1069</v>
+        <v>1100</v>
+      </c>
+      <c r="L169" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M169" s="6" t="s">
-        <v>599</v>
+        <v>1101</v>
       </c>
       <c r="N169" s="6" t="s">
-        <v>1070</v>
+        <v>1102</v>
       </c>
       <c r="P169" s="6" t="s">
-        <v>1070</v>
+        <v>1102</v>
       </c>
       <c r="Q169" s="9"/>
     </row>
     <row r="170">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
-      <c r="C170" s="8">
+      <c r="C170" s="30">
         <v>169.0</v>
       </c>
-      <c r="D170" s="6" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F170" s="31" t="s">
+      <c r="D170" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F170" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G170" s="6" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H170" s="6" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I170" s="6">
-        <v>36.0</v>
-      </c>
-      <c r="J170" s="7">
-        <v>32463.0</v>
-      </c>
-      <c r="K170" s="6" t="s">
-        <v>1075</v>
-      </c>
-      <c r="M170" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="N170" s="6" t="s">
-        <v>1076</v>
-      </c>
-      <c r="P170" s="6" t="s">
-        <v>1076</v>
+      <c r="G170" s="10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H170" s="10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I170" s="40">
+        <v>27.0</v>
+      </c>
+      <c r="J170" s="33">
+        <v>35450.0</v>
+      </c>
+      <c r="K170" s="34" t="s">
+        <v>1106</v>
+      </c>
+      <c r="L170" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M170" s="10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="N170" s="10" t="s">
+        <v>1108</v>
       </c>
       <c r="Q170" s="9"/>
     </row>
@@ -11542,19 +11838,19 @@
         <v>170.0</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>1077</v>
+        <v>1109</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>1078</v>
+        <v>1110</v>
       </c>
       <c r="F171" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>1079</v>
+        <v>1111</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>1080</v>
+        <v>1112</v>
       </c>
       <c r="I171" s="6">
         <v>30.0</v>
@@ -11563,16 +11859,19 @@
         <v>34625.0</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>1081</v>
+        <v>1113</v>
+      </c>
+      <c r="L171" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M171" s="6" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="N171" s="6" t="s">
-        <v>1082</v>
+        <v>1114</v>
       </c>
       <c r="P171" s="6" t="s">
-        <v>1082</v>
+        <v>1114</v>
       </c>
       <c r="Q171" s="9"/>
     </row>
@@ -11583,19 +11882,19 @@
         <v>171.0</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>1083</v>
+        <v>1115</v>
       </c>
       <c r="F172" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>1084</v>
+        <v>1116</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>1085</v>
+        <v>1117</v>
       </c>
       <c r="I172" s="6">
         <v>35.0</v>
@@ -11604,16 +11903,19 @@
         <v>32830.0</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>1086</v>
+        <v>1118</v>
+      </c>
+      <c r="L172" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M172" s="6" t="s">
-        <v>615</v>
+        <v>1119</v>
       </c>
       <c r="N172" s="6" t="s">
-        <v>1087</v>
+        <v>1120</v>
       </c>
       <c r="P172" s="6" t="s">
-        <v>1087</v>
+        <v>1120</v>
       </c>
       <c r="Q172" s="9"/>
     </row>
@@ -11624,19 +11926,19 @@
         <v>172.0</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>1088</v>
+        <v>1121</v>
       </c>
       <c r="F173" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>1089</v>
+        <v>1122</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>1090</v>
+        <v>1123</v>
       </c>
       <c r="I173" s="6">
         <v>26.0</v>
@@ -11645,16 +11947,19 @@
         <v>36036.0</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>1091</v>
+        <v>1124</v>
+      </c>
+      <c r="L173" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M173" s="6" t="s">
-        <v>620</v>
+        <v>1125</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>1092</v>
+        <v>1126</v>
       </c>
       <c r="P173" s="6" t="s">
-        <v>1092</v>
+        <v>1126</v>
       </c>
       <c r="Q173" s="9"/>
     </row>
@@ -11665,19 +11970,19 @@
         <v>173.0</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>1093</v>
+        <v>1127</v>
       </c>
       <c r="F174" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>1094</v>
+        <v>1128</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>1095</v>
+        <v>1129</v>
       </c>
       <c r="I174" s="6">
         <v>27.0</v>
@@ -11686,16 +11991,19 @@
         <v>35477.0</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>1096</v>
+        <v>1130</v>
+      </c>
+      <c r="L174" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M174" s="6" t="s">
-        <v>627</v>
+        <v>1131</v>
       </c>
       <c r="N174" s="6" t="s">
-        <v>1097</v>
+        <v>1132</v>
       </c>
       <c r="P174" s="6" t="s">
-        <v>1097</v>
+        <v>1132</v>
       </c>
       <c r="Q174" s="9"/>
     </row>
@@ -11706,19 +12014,19 @@
         <v>174.0</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="F175" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>1098</v>
+        <v>1133</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>1099</v>
+        <v>1134</v>
       </c>
       <c r="I175" s="6">
         <v>24.0</v>
@@ -11727,16 +12035,19 @@
         <v>36821.0</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>1100</v>
+        <v>1135</v>
+      </c>
+      <c r="L175" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M175" s="6" t="s">
-        <v>633</v>
+        <v>1136</v>
       </c>
       <c r="N175" s="6" t="s">
-        <v>1101</v>
+        <v>1137</v>
       </c>
       <c r="P175" s="6" t="s">
-        <v>1101</v>
+        <v>1137</v>
       </c>
       <c r="Q175" s="9"/>
     </row>
@@ -11747,19 +12058,19 @@
         <v>175.0</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>1102</v>
+        <v>1138</v>
       </c>
       <c r="F176" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>1103</v>
+        <v>1139</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>1104</v>
+        <v>1140</v>
       </c>
       <c r="I176" s="6">
         <v>29.0</v>
@@ -11768,16 +12079,19 @@
         <v>34821.0</v>
       </c>
       <c r="K176" s="6" t="s">
-        <v>1105</v>
+        <v>1141</v>
+      </c>
+      <c r="L176" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M176" s="6" t="s">
-        <v>640</v>
+        <v>1142</v>
       </c>
       <c r="N176" s="6" t="s">
-        <v>1106</v>
+        <v>1143</v>
       </c>
       <c r="P176" s="6" t="s">
-        <v>1106</v>
+        <v>1143</v>
       </c>
       <c r="Q176" s="9"/>
     </row>
@@ -11788,19 +12102,19 @@
         <v>176.0</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>1107</v>
+        <v>1144</v>
       </c>
       <c r="F177" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>1108</v>
+        <v>1145</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>1109</v>
+        <v>1146</v>
       </c>
       <c r="I177" s="6">
         <v>30.0</v>
@@ -11809,16 +12123,19 @@
         <v>34443.0</v>
       </c>
       <c r="K177" s="6" t="s">
-        <v>1110</v>
+        <v>1147</v>
+      </c>
+      <c r="L177" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M177" s="6" t="s">
-        <v>644</v>
+        <v>1148</v>
       </c>
       <c r="N177" s="6" t="s">
-        <v>1111</v>
+        <v>1149</v>
       </c>
       <c r="P177" s="6" t="s">
-        <v>1111</v>
+        <v>1149</v>
       </c>
       <c r="Q177" s="9"/>
     </row>
@@ -11829,19 +12146,19 @@
         <v>177.0</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>976</v>
+        <v>991</v>
       </c>
       <c r="F178" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>1112</v>
+        <v>1150</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>1113</v>
+        <v>1151</v>
       </c>
       <c r="I178" s="6">
         <v>38.0</v>
@@ -11850,16 +12167,19 @@
         <v>31446.0</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>1114</v>
+        <v>1152</v>
+      </c>
+      <c r="L178" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M178" s="6" t="s">
-        <v>650</v>
+        <v>1153</v>
       </c>
       <c r="N178" s="6" t="s">
-        <v>1115</v>
+        <v>1154</v>
       </c>
       <c r="P178" s="6" t="s">
-        <v>1115</v>
+        <v>1154</v>
       </c>
       <c r="Q178" s="9"/>
     </row>
@@ -11873,16 +12193,16 @@
         <v>435</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>1116</v>
+        <v>1155</v>
       </c>
       <c r="F179" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>1117</v>
+        <v>1156</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>1118</v>
+        <v>1157</v>
       </c>
       <c r="I179" s="6">
         <v>28.0</v>
@@ -11891,16 +12211,19 @@
         <v>35093.0</v>
       </c>
       <c r="K179" s="6" t="s">
-        <v>1119</v>
+        <v>1158</v>
+      </c>
+      <c r="L179" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M179" s="6" t="s">
-        <v>656</v>
+        <v>1159</v>
       </c>
       <c r="N179" s="6" t="s">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="P179" s="6" t="s">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q179" s="9"/>
     </row>
@@ -11914,16 +12237,16 @@
         <v>37</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>1121</v>
+        <v>1161</v>
       </c>
       <c r="F180" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>1122</v>
+        <v>1162</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>1123</v>
+        <v>1163</v>
       </c>
       <c r="I180" s="6">
         <v>28.0</v>
@@ -11932,16 +12255,19 @@
         <v>35324.0</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>1124</v>
+        <v>1164</v>
+      </c>
+      <c r="L180" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="M180" s="6" t="s">
-        <v>663</v>
+        <v>1165</v>
       </c>
       <c r="N180" s="6" t="s">
-        <v>1125</v>
+        <v>1166</v>
       </c>
       <c r="P180" s="6" t="s">
-        <v>1125</v>
+        <v>1166</v>
       </c>
       <c r="Q180" s="9"/>
     </row>
@@ -11961,30 +12287,32 @@
         <v>19</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>1126</v>
+        <v>1167</v>
       </c>
       <c r="H181" s="10" t="s">
-        <v>1127</v>
-      </c>
-      <c r="I181" s="41">
+        <v>1168</v>
+      </c>
+      <c r="I181" s="40">
         <v>33.0</v>
       </c>
       <c r="J181" s="33">
         <v>33238.0</v>
       </c>
-      <c r="K181" s="10" t="s">
-        <v>1128</v>
-      </c>
-      <c r="L181" s="10"/>
-      <c r="M181" s="10" t="s">
-        <v>1129</v>
+      <c r="K181" s="34" t="s">
+        <v>1169</v>
+      </c>
+      <c r="L181" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="M181" s="34" t="s">
+        <v>1170</v>
       </c>
       <c r="N181" s="10" t="s">
-        <v>1130</v>
+        <v>1171</v>
       </c>
       <c r="O181" s="10"/>
       <c r="P181" s="10" t="s">
-        <v>1130</v>
+        <v>1171</v>
       </c>
       <c r="Q181" s="10"/>
       <c r="R181" s="10"/>
@@ -12336,7 +12664,7 @@
     <row r="229">
       <c r="A229" s="8"/>
       <c r="B229" s="8" t="s">
-        <v>1131</v>
+        <v>1172</v>
       </c>
       <c r="C229" s="9"/>
       <c r="L229" s="9"/>
@@ -12345,13 +12673,13 @@
     <row r="230">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
-        <v>1132</v>
+        <v>1173</v>
       </c>
       <c r="C230" s="17" t="s">
-        <v>1133</v>
+        <v>1174</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>1134</v>
+        <v>1175</v>
       </c>
       <c r="L230" s="9"/>
       <c r="Q230" s="9"/>
@@ -12359,13 +12687,13 @@
     <row r="231">
       <c r="A231" s="18"/>
       <c r="B231" s="18" t="s">
-        <v>1135</v>
+        <v>1176</v>
       </c>
       <c r="C231" s="18" t="s">
-        <v>1133</v>
+        <v>1174</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>1136</v>
+        <v>1177</v>
       </c>
       <c r="L231" s="9"/>
       <c r="Q231" s="9"/>
@@ -12373,55 +12701,55 @@
     <row r="232">
       <c r="A232" s="24"/>
       <c r="B232" s="24" t="s">
-        <v>1137</v>
+        <v>1178</v>
       </c>
       <c r="C232" s="24" t="s">
-        <v>1133</v>
+        <v>1174</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>1134</v>
+        <v>1175</v>
       </c>
       <c r="L232" s="9"/>
       <c r="Q232" s="9"/>
     </row>
     <row r="233">
-      <c r="A233" s="42"/>
+      <c r="A233" s="41"/>
       <c r="B233" s="4" t="s">
-        <v>1138</v>
+        <v>1179</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>1133</v>
+        <v>1174</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>1134</v>
+        <v>1175</v>
       </c>
       <c r="L233" s="9"/>
       <c r="Q233" s="9"/>
     </row>
     <row r="234">
-      <c r="A234" s="43"/>
+      <c r="A234" s="42"/>
       <c r="B234" s="20" t="s">
-        <v>1139</v>
+        <v>1180</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>1133</v>
+        <v>1174</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>1134</v>
+        <v>1175</v>
       </c>
       <c r="L234" s="9"/>
       <c r="Q234" s="9"/>
     </row>
     <row r="235">
-      <c r="A235" s="44"/>
+      <c r="A235" s="43"/>
       <c r="B235" s="23" t="s">
-        <v>1140</v>
+        <v>1181</v>
       </c>
       <c r="C235" s="23" t="s">
-        <v>1133</v>
+        <v>1174</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>1134</v>
+        <v>1175</v>
       </c>
       <c r="L235" s="9"/>
       <c r="Q235" s="9"/>
@@ -12429,13 +12757,13 @@
     <row r="236">
       <c r="A236" s="26"/>
       <c r="B236" s="27" t="s">
-        <v>1141</v>
+        <v>1182</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>1133</v>
+        <v>1174</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>1134</v>
+        <v>1175</v>
       </c>
       <c r="L236" s="9"/>
       <c r="Q236" s="9"/>
@@ -12443,13 +12771,13 @@
     <row r="237">
       <c r="A237" s="35"/>
       <c r="B237" s="36" t="s">
-        <v>1142</v>
+        <v>1183</v>
       </c>
       <c r="C237" s="36" t="s">
-        <v>1133</v>
+        <v>1174</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>1143</v>
+        <v>1184</v>
       </c>
       <c r="L237" s="9"/>
       <c r="Q237" s="9"/>
@@ -12457,13 +12785,13 @@
     <row r="238">
       <c r="A238" s="37"/>
       <c r="B238" s="38" t="s">
-        <v>1144</v>
+        <v>1185</v>
       </c>
       <c r="C238" s="38" t="s">
-        <v>1133</v>
+        <v>1174</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>1134</v>
+        <v>1175</v>
       </c>
       <c r="L238" s="9"/>
       <c r="Q238" s="9"/>

--- a/Profiles _ BFJ.xlsx
+++ b/Profiles _ BFJ.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="1188">
   <si>
     <t>Setup?</t>
   </si>
@@ -3421,6 +3421,9 @@
     <t>sarahcurtis664@gmail.com</t>
   </si>
   <si>
+    <t>bad account not opening</t>
+  </si>
+  <si>
     <t>pQfqvZgo</t>
   </si>
   <si>
@@ -3434,6 +3437,9 @@
   </si>
   <si>
     <t>nathanjordan744@gmail.com</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>3mHRo8!F</t>
@@ -11023,7 +11029,7 @@
         <v>25.0</v>
       </c>
       <c r="J152" s="7">
-        <v>36326.0</v>
+        <v>36325.0</v>
       </c>
       <c r="K152" s="6" t="s">
         <v>989</v>
@@ -11419,7 +11425,7 @@
         <v>25.0</v>
       </c>
       <c r="J161" s="7">
-        <v>36206.0</v>
+        <v>36201.0</v>
       </c>
       <c r="K161" s="6" t="s">
         <v>1046</v>
@@ -11994,16 +12000,16 @@
         <v>1130</v>
       </c>
       <c r="L174" s="39" t="s">
-        <v>23</v>
+        <v>1131</v>
       </c>
       <c r="M174" s="6" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="N174" s="6" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="P174" s="6" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="Q174" s="9"/>
     </row>
@@ -12023,10 +12029,10 @@
         <v>481</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="I175" s="6">
         <v>24.0</v>
@@ -12035,19 +12041,19 @@
         <v>36821.0</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="L175" s="39" t="s">
-        <v>23</v>
+        <v>1137</v>
       </c>
       <c r="M175" s="6" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="N175" s="6" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="P175" s="6" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="Q175" s="9"/>
     </row>
@@ -12061,16 +12067,16 @@
         <v>789</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="F176" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="I176" s="6">
         <v>29.0</v>
@@ -12079,19 +12085,19 @@
         <v>34821.0</v>
       </c>
       <c r="K176" s="6" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="L176" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M176" s="6" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="N176" s="6" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="P176" s="6" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="Q176" s="9"/>
     </row>
@@ -12105,16 +12111,16 @@
         <v>796</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="F177" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="I177" s="6">
         <v>30.0</v>
@@ -12123,19 +12129,19 @@
         <v>34443.0</v>
       </c>
       <c r="K177" s="6" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="L177" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M177" s="6" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="N177" s="6" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="P177" s="6" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="Q177" s="9"/>
     </row>
@@ -12155,10 +12161,10 @@
         <v>19</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="I178" s="6">
         <v>38.0</v>
@@ -12167,19 +12173,19 @@
         <v>31446.0</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="L178" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M178" s="6" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="N178" s="6" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="P178" s="6" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="Q178" s="9"/>
     </row>
@@ -12193,16 +12199,16 @@
         <v>435</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="F179" s="31" t="s">
         <v>481</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="I179" s="6">
         <v>28.0</v>
@@ -12211,19 +12217,19 @@
         <v>35093.0</v>
       </c>
       <c r="K179" s="6" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="L179" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M179" s="6" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="N179" s="6" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="P179" s="6" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="Q179" s="9"/>
     </row>
@@ -12237,16 +12243,16 @@
         <v>37</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="F180" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="I180" s="6">
         <v>28.0</v>
@@ -12255,19 +12261,19 @@
         <v>35324.0</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="L180" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M180" s="6" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="N180" s="6" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="P180" s="6" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="Q180" s="9"/>
     </row>
@@ -12287,10 +12293,10 @@
         <v>19</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="H181" s="10" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="I181" s="40">
         <v>33.0</v>
@@ -12299,20 +12305,20 @@
         <v>33238.0</v>
       </c>
       <c r="K181" s="34" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="L181" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M181" s="34" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="N181" s="10" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="O181" s="10"/>
       <c r="P181" s="10" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="Q181" s="10"/>
       <c r="R181" s="10"/>
@@ -12664,7 +12670,7 @@
     <row r="229">
       <c r="A229" s="8"/>
       <c r="B229" s="8" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C229" s="9"/>
       <c r="L229" s="9"/>
@@ -12673,13 +12679,13 @@
     <row r="230">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="C230" s="17" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="L230" s="9"/>
       <c r="Q230" s="9"/>
@@ -12687,13 +12693,13 @@
     <row r="231">
       <c r="A231" s="18"/>
       <c r="B231" s="18" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C231" s="18" t="s">
         <v>1176</v>
       </c>
-      <c r="C231" s="18" t="s">
-        <v>1174</v>
-      </c>
       <c r="D231" s="6" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="L231" s="9"/>
       <c r="Q231" s="9"/>
@@ -12701,13 +12707,13 @@
     <row r="232">
       <c r="A232" s="24"/>
       <c r="B232" s="24" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C232" s="24" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="L232" s="9"/>
       <c r="Q232" s="9"/>
@@ -12715,13 +12721,13 @@
     <row r="233">
       <c r="A233" s="41"/>
       <c r="B233" s="4" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="L233" s="9"/>
       <c r="Q233" s="9"/>
@@ -12729,13 +12735,13 @@
     <row r="234">
       <c r="A234" s="42"/>
       <c r="B234" s="20" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="L234" s="9"/>
       <c r="Q234" s="9"/>
@@ -12743,13 +12749,13 @@
     <row r="235">
       <c r="A235" s="43"/>
       <c r="B235" s="23" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C235" s="23" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="L235" s="9"/>
       <c r="Q235" s="9"/>
@@ -12757,13 +12763,13 @@
     <row r="236">
       <c r="A236" s="26"/>
       <c r="B236" s="27" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="L236" s="9"/>
       <c r="Q236" s="9"/>
@@ -12771,13 +12777,13 @@
     <row r="237">
       <c r="A237" s="35"/>
       <c r="B237" s="36" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C237" s="36" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="L237" s="9"/>
       <c r="Q237" s="9"/>
@@ -12785,13 +12791,13 @@
     <row r="238">
       <c r="A238" s="37"/>
       <c r="B238" s="38" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C238" s="38" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="L238" s="9"/>
       <c r="Q238" s="9"/>
